--- a/Datos IA.xlsx
+++ b/Datos IA.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virginia.carrizo\Desktop\face_recognition\general_food\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virginia.carrizo\Desktop\face_recognition\generalfood-docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16272" windowHeight="4272"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$424</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="853">
   <si>
     <t>LEGAJO</t>
   </si>
@@ -1156,9 +1156,6 @@
     <t>COLAZO IVAN</t>
   </si>
   <si>
-    <t>KAUFMAN URIEL JEREMÍAS</t>
-  </si>
-  <si>
     <t>COMPARETTI YASMIN ANTONELLA</t>
   </si>
   <si>
@@ -1979,9 +1976,6 @@
   </si>
   <si>
     <t>LAZO FACUNDO JOSE</t>
-  </si>
-  <si>
-    <t>ROMERO RAVANO MARIA VICTORIA</t>
   </si>
   <si>
     <t>LETTIERI FEDERICO GUILLERMO</t>
@@ -3161,7 +3155,7 @@
   <dimension ref="A1:I694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -3199,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3207,7 +3201,7 @@
         <v>1944</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" s="6">
         <v>20343681829</v>
@@ -3372,10 +3366,10 @@
         <v>35360</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>71</v>
@@ -3398,7 +3392,7 @@
         <v>30798</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>170</v>
@@ -3814,7 +3808,7 @@
         <v>32454</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>297</v>
@@ -3909,7 +3903,7 @@
         <v>1662</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="14">
         <v>20405530229</v>
@@ -3961,7 +3955,7 @@
         <v>1843</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C31" s="6">
         <v>20365787418</v>
@@ -4103,7 +4097,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>71</v>
@@ -4143,7 +4137,7 @@
         <v>1976</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C38" s="6">
         <v>27287717038</v>
@@ -4155,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>71</v>
@@ -4181,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>71</v>
@@ -4282,10 +4276,10 @@
         <v>32813</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>71</v>
@@ -4299,7 +4293,7 @@
         <v>1866</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C44" s="6">
         <v>20437176583</v>
@@ -4493,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>71</v>
@@ -4542,10 +4536,10 @@
         <v>31493</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>71</v>
@@ -4649,7 +4643,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>71</v>
@@ -4741,7 +4735,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C61" s="6">
         <v>20327564421</v>
@@ -4750,7 +4744,7 @@
         <v>31800</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>297</v>
@@ -4805,7 +4799,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>48</v>
@@ -4819,7 +4813,7 @@
         <v>1771</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C64" s="14">
         <v>20293118559</v>
@@ -4949,7 +4943,7 @@
         <v>1666</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C69" s="14">
         <v>20418600773</v>
@@ -5027,7 +5021,7 @@
         <v>1390</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C72" s="14">
         <v>20246166278</v>
@@ -5114,10 +5108,10 @@
         <v>32452</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>71</v>
@@ -5157,7 +5151,7 @@
         <v>1960</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C77" s="6">
         <v>27432379634</v>
@@ -5247,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>37</v>
@@ -5261,7 +5255,7 @@
         <v>1777</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C81" s="14">
         <v>20409249346</v>
@@ -5365,7 +5359,7 @@
         <v>1725</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C85" s="14">
         <v>20398420455</v>
@@ -5391,7 +5385,7 @@
         <v>1728</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C86" s="14">
         <v>20425569458</v>
@@ -5417,7 +5411,7 @@
         <v>1965</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C87" s="6">
         <v>20325134780</v>
@@ -5429,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>71</v>
@@ -5443,7 +5437,7 @@
         <v>1939</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C88" s="6">
         <v>20337122958</v>
@@ -5455,7 +5449,7 @@
         <v>9</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>16</v>
@@ -5521,7 +5515,7 @@
         <v>1749</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C91" s="14">
         <v>20305168530</v>
@@ -5599,7 +5593,7 @@
         <v>1774</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C94" s="14">
         <v>20455094187</v>
@@ -5651,7 +5645,7 @@
         <v>896</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C96" s="14">
         <v>20293486965</v>
@@ -5663,7 +5657,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>26</v>
@@ -5677,7 +5671,7 @@
         <v>1984</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C97" s="6">
         <v>20331758273</v>
@@ -5703,7 +5697,7 @@
         <v>1758</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C98" s="14">
         <v>20454142706</v>
@@ -5715,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>71</v>
@@ -5729,7 +5723,7 @@
         <v>1916</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C99" s="6">
         <v>20427654266</v>
@@ -5755,7 +5749,7 @@
         <v>1968</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C100" s="6">
         <v>27417334225</v>
@@ -5781,7 +5775,7 @@
         <v>1895</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C101" s="20">
         <v>20344766267</v>
@@ -5833,7 +5827,7 @@
         <v>977</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C103" s="14">
         <v>20236401643</v>
@@ -5885,7 +5879,7 @@
         <v>1744</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C105" s="14">
         <v>27389054890</v>
@@ -5911,7 +5905,7 @@
         <v>1887</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C106" s="20">
         <v>27424469713</v>
@@ -5937,7 +5931,7 @@
         <v>1841</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C107" s="6">
         <v>27365235061</v>
@@ -5963,7 +5957,7 @@
         <v>1338</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C108" s="14">
         <v>20330163292</v>
@@ -5975,7 +5969,7 @@
         <v>9</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G108" s="15" t="s">
         <v>11</v>
@@ -5989,7 +5983,7 @@
         <v>20</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C109" s="14">
         <v>27409524562</v>
@@ -5998,10 +5992,10 @@
         <v>35885</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>26</v>
@@ -6015,7 +6009,7 @@
         <v>1896</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C110" s="20">
         <v>20409710787</v>
@@ -6041,7 +6035,7 @@
         <v>915</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C111" s="14">
         <v>20377014295</v>
@@ -6093,7 +6087,7 @@
         <v>1930</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C113" s="6">
         <v>29430079579</v>
@@ -6119,7 +6113,7 @@
         <v>1983</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C114" s="6">
         <v>20377748809</v>
@@ -6145,7 +6139,7 @@
         <v>1236</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C115" s="14">
         <v>27374450153</v>
@@ -6171,7 +6165,7 @@
         <v>1790</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C116" s="14">
         <v>27362910582</v>
@@ -6197,7 +6191,7 @@
         <v>1914</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C117" s="6">
         <v>20414924876</v>
@@ -6275,7 +6269,7 @@
         <v>17</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C120" s="14">
         <v>20409707808</v>
@@ -6284,10 +6278,10 @@
         <v>35868</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G120" s="15" t="s">
         <v>26</v>
@@ -6327,7 +6321,7 @@
         <v>1823</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C122" s="8">
         <v>20432844650</v>
@@ -6353,7 +6347,7 @@
         <v>1731</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C123" s="14">
         <v>20411080758</v>
@@ -6379,7 +6373,7 @@
         <v>1720</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C124" s="14">
         <v>20421295698</v>
@@ -6405,7 +6399,7 @@
         <v>1838</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C125" s="6">
         <v>20409713085</v>
@@ -6417,7 +6411,7 @@
         <v>9</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G125" s="15" t="s">
         <v>71</v>
@@ -6457,7 +6451,7 @@
         <v>1787</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C127" s="14">
         <v>23434641829</v>
@@ -6509,7 +6503,7 @@
         <v>1778</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C129" s="14">
         <v>20290014523</v>
@@ -6535,7 +6529,7 @@
         <v>849</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C130" s="14">
         <v>27370735269</v>
@@ -6547,7 +6541,7 @@
         <v>9</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>33</v>
@@ -6561,7 +6555,7 @@
         <v>1964</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C131" s="6">
         <v>27383735233</v>
@@ -6573,7 +6567,7 @@
         <v>9</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G131" s="15" t="s">
         <v>71</v>
@@ -6587,7 +6581,7 @@
         <v>1902</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C132" s="6">
         <v>27356448206</v>
@@ -6665,7 +6659,7 @@
         <v>1824</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C135" s="8">
         <v>27406200227</v>
@@ -6743,7 +6737,7 @@
         <v>1696</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C138" s="14">
         <v>27370732618</v>
@@ -6769,7 +6763,7 @@
         <v>1853</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C139" s="6">
         <v>27431267751</v>
@@ -6899,7 +6893,7 @@
         <v>21</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C144" s="14">
         <v>20390367970</v>
@@ -6908,10 +6902,10 @@
         <v>34909</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>16</v>
@@ -6925,7 +6919,7 @@
         <v>24</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C145" s="13">
         <v>23343684819</v>
@@ -6934,10 +6928,10 @@
         <v>32598</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G145" s="15" t="s">
         <v>71</v>
@@ -6951,7 +6945,7 @@
         <v>1833</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C146" s="6">
         <v>27434957120</v>
@@ -6969,7 +6963,7 @@
         <v>71</v>
       </c>
       <c r="I146" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6995,7 +6989,7 @@
         <v>48</v>
       </c>
       <c r="I147" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7003,7 +6997,7 @@
         <v>1813</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C148" s="8">
         <v>20959471879</v>
@@ -7021,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="I148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7029,7 +7023,7 @@
         <v>1802</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C149" s="14">
         <v>27423293689</v>
@@ -7047,7 +7041,7 @@
         <v>16</v>
       </c>
       <c r="I149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7073,7 +7067,7 @@
         <v>37</v>
       </c>
       <c r="I150" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7081,7 +7075,7 @@
         <v>783</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C151" s="14">
         <v>27288219023</v>
@@ -7099,7 +7093,7 @@
         <v>71</v>
       </c>
       <c r="I151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7159,7 +7153,7 @@
         <v>1957</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C154" s="6">
         <v>20401198564</v>
@@ -7177,7 +7171,7 @@
         <v>16</v>
       </c>
       <c r="I154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7185,7 +7179,7 @@
         <v>6</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C155" s="23">
         <v>27413607952</v>
@@ -7194,7 +7188,7 @@
         <v>36238</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>297</v>
@@ -7211,7 +7205,7 @@
         <v>1707</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C156" s="14">
         <v>20336758603</v>
@@ -7223,13 +7217,13 @@
         <v>9</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G156" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I156" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7263,7 +7257,7 @@
         <v>1846</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C158" s="6">
         <v>20441795689</v>
@@ -7275,13 +7269,13 @@
         <v>9</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G158" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I158" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7333,7 +7327,7 @@
         <v>16</v>
       </c>
       <c r="I160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7341,7 +7335,7 @@
         <v>1794</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C161" s="14">
         <v>20400384577</v>
@@ -7359,7 +7353,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7367,7 +7361,7 @@
         <v>1698</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C162" s="14">
         <v>20392510029</v>
@@ -7385,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="I162" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7393,7 +7387,7 @@
         <v>1962</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C163" s="6">
         <v>20399487421</v>
@@ -7405,13 +7399,13 @@
         <v>9</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G163" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I163" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7419,7 +7413,7 @@
         <v>1734</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C164" s="14">
         <v>27412398160</v>
@@ -7437,7 +7431,7 @@
         <v>16</v>
       </c>
       <c r="I164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7463,7 +7457,7 @@
         <v>11</v>
       </c>
       <c r="I165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7465,7 @@
         <v>1911</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C166" s="6">
         <v>23372653019</v>
@@ -7489,7 +7483,7 @@
         <v>16</v>
       </c>
       <c r="I166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7515,7 +7509,7 @@
         <v>33</v>
       </c>
       <c r="I167" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7541,7 +7535,7 @@
         <v>71</v>
       </c>
       <c r="I168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7549,7 +7543,7 @@
         <v>1879</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C169" s="20">
         <v>27296948999</v>
@@ -7567,7 +7561,7 @@
         <v>37</v>
       </c>
       <c r="I169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7575,7 +7569,7 @@
         <v>1966</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C170" s="6">
         <v>23290466229</v>
@@ -7593,7 +7587,7 @@
         <v>16</v>
       </c>
       <c r="I170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7601,7 +7595,7 @@
         <v>1897</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C171" s="20">
         <v>20403620352</v>
@@ -7619,7 +7613,7 @@
         <v>71</v>
       </c>
       <c r="I171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7627,7 +7621,7 @@
         <v>1063</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C172" s="14">
         <v>20407804571</v>
@@ -7645,7 +7639,7 @@
         <v>71</v>
       </c>
       <c r="I172" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7653,7 +7647,7 @@
         <v>1828</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C173" s="8">
         <v>27366815525</v>
@@ -7671,7 +7665,7 @@
         <v>16</v>
       </c>
       <c r="I173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7679,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C174" s="14">
         <v>27383741020</v>
@@ -7688,16 +7682,16 @@
         <v>35244</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G174" s="15" t="s">
         <v>37</v>
       </c>
       <c r="I174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7705,7 +7699,7 @@
         <v>1953</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C175" s="6">
         <v>20277428998</v>
@@ -7723,7 +7717,7 @@
         <v>48</v>
       </c>
       <c r="I175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7757,7 +7751,7 @@
         <v>1867</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C177" s="6">
         <v>20421803340</v>
@@ -7775,7 +7769,7 @@
         <v>16</v>
       </c>
       <c r="I177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7783,7 +7777,7 @@
         <v>1876</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C178" s="20">
         <v>20298762987</v>
@@ -7795,13 +7789,13 @@
         <v>9</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I178" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7809,7 +7803,7 @@
         <v>1929</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C179" s="6">
         <v>20395664396</v>
@@ -7827,7 +7821,7 @@
         <v>71</v>
       </c>
       <c r="I179" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7835,7 +7829,7 @@
         <v>907</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C180" s="14">
         <v>20354674980</v>
@@ -7853,7 +7847,7 @@
         <v>16</v>
       </c>
       <c r="I180" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7861,7 +7855,7 @@
         <v>1972</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C181" s="6">
         <v>20337307710</v>
@@ -7879,7 +7873,7 @@
         <v>16</v>
       </c>
       <c r="I181" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7887,7 +7881,7 @@
         <v>1611</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C182" s="14">
         <v>20263796005</v>
@@ -7905,7 +7899,7 @@
         <v>16</v>
       </c>
       <c r="I182" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7913,7 +7907,7 @@
         <v>1987</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C183" s="6">
         <v>20290799369</v>
@@ -7931,7 +7925,7 @@
         <v>16</v>
       </c>
       <c r="I183" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7939,7 +7933,7 @@
         <v>1978</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C184" s="6">
         <v>27385960358</v>
@@ -7951,13 +7945,13 @@
         <v>9</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G184" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I184" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7983,7 +7977,7 @@
         <v>33</v>
       </c>
       <c r="I185" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7991,7 +7985,7 @@
         <v>778</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>335</v>
+        <v>594</v>
       </c>
       <c r="C186" s="9">
         <v>20378321280</v>
@@ -8009,7 +8003,7 @@
         <v>37</v>
       </c>
       <c r="I186" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8011,7 @@
         <v>1899</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C187" s="6">
         <v>27341719378</v>
@@ -8035,7 +8029,7 @@
         <v>16</v>
       </c>
       <c r="I187" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8043,7 +8037,7 @@
         <v>1535</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C188" s="14">
         <v>20340148941</v>
@@ -8061,7 +8055,7 @@
         <v>71</v>
       </c>
       <c r="I188" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8087,7 +8081,7 @@
         <v>71</v>
       </c>
       <c r="I189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8121,7 +8115,7 @@
         <v>1735</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C191" s="14">
         <v>20360052401</v>
@@ -8139,7 +8133,7 @@
         <v>16</v>
       </c>
       <c r="I191" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8147,7 +8141,7 @@
         <v>1424</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C192" s="14">
         <v>20401210475</v>
@@ -8165,7 +8159,7 @@
         <v>33</v>
       </c>
       <c r="I192" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8191,7 +8185,7 @@
         <v>71</v>
       </c>
       <c r="I193" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8199,7 +8193,7 @@
         <v>919</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C194" s="14">
         <v>20312805333</v>
@@ -8217,7 +8211,7 @@
         <v>16</v>
       </c>
       <c r="I194" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8243,7 +8237,7 @@
         <v>71</v>
       </c>
       <c r="I195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8251,7 +8245,7 @@
         <v>1904</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C196" s="6">
         <v>27419466374</v>
@@ -8269,7 +8263,7 @@
         <v>16</v>
       </c>
       <c r="I196" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8277,7 +8271,7 @@
         <v>1793</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C197" s="14">
         <v>20377670842</v>
@@ -8303,7 +8297,7 @@
         <v>1789</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C198" s="14">
         <v>23368103489</v>
@@ -8315,13 +8309,13 @@
         <v>9</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G198" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I198" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8329,7 +8323,7 @@
         <v>1064</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C199" s="14">
         <v>20372659786</v>
@@ -8355,7 +8349,7 @@
         <v>1903</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C200" s="6">
         <v>27422707188</v>
@@ -8373,7 +8367,7 @@
         <v>16</v>
       </c>
       <c r="I200" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8399,7 +8393,7 @@
         <v>71</v>
       </c>
       <c r="I201" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8407,7 +8401,7 @@
         <v>1668</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C202" s="14">
         <v>20398579837</v>
@@ -8451,7 +8445,7 @@
         <v>16</v>
       </c>
       <c r="I203" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8459,7 +8453,7 @@
         <v>1894</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C204" s="20">
         <v>20378318670</v>
@@ -8471,13 +8465,13 @@
         <v>9</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G204" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I204" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8485,7 +8479,7 @@
         <v>1729</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C205" s="14">
         <v>20372086883</v>
@@ -8503,7 +8497,7 @@
         <v>16</v>
       </c>
       <c r="I205" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8529,7 +8523,7 @@
         <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8555,7 +8549,7 @@
         <v>71</v>
       </c>
       <c r="I207" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8563,7 +8557,7 @@
         <v>1609</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C208" s="14">
         <v>23960045394</v>
@@ -8581,7 +8575,7 @@
         <v>71</v>
       </c>
       <c r="I208" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8589,7 +8583,7 @@
         <v>1714</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C209" s="14">
         <v>20385975369</v>
@@ -8607,7 +8601,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8633,7 +8627,7 @@
         <v>71</v>
       </c>
       <c r="I210" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8641,7 +8635,7 @@
         <v>9</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C211" s="14">
         <v>20939211064</v>
@@ -8650,7 +8644,7 @@
         <v>29919</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F211" s="15" t="s">
         <v>152</v>
@@ -8659,7 +8653,7 @@
         <v>16</v>
       </c>
       <c r="I211" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8667,7 +8661,7 @@
         <v>1928</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C212" s="6">
         <v>20313852777</v>
@@ -8679,13 +8673,13 @@
         <v>9</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I212" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8711,7 +8705,7 @@
         <v>37</v>
       </c>
       <c r="I213" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8737,7 +8731,7 @@
         <v>16</v>
       </c>
       <c r="I214" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8745,7 +8739,7 @@
         <v>1042</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C215" s="14">
         <v>20344769584</v>
@@ -8763,7 +8757,7 @@
         <v>11</v>
       </c>
       <c r="I215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8797,7 +8791,7 @@
         <v>947</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C217" s="14">
         <v>23389049344</v>
@@ -8806,16 +8800,16 @@
         <v>34830</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G217" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I217" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8823,7 +8817,7 @@
         <v>1056</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C218" s="14">
         <v>20395028589</v>
@@ -8841,7 +8835,7 @@
         <v>33</v>
       </c>
       <c r="I218" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8849,7 +8843,7 @@
         <v>1878</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C219" s="20">
         <v>27320701525</v>
@@ -8861,13 +8855,13 @@
         <v>9</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G219" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I219" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8893,7 +8887,7 @@
         <v>16</v>
       </c>
       <c r="I220" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8901,7 +8895,7 @@
         <v>1711</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C221" s="14">
         <v>20412566867</v>
@@ -8927,7 +8921,7 @@
         <v>918</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C222" s="14">
         <v>20384486747</v>
@@ -8945,7 +8939,7 @@
         <v>16</v>
       </c>
       <c r="I222" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8953,7 +8947,7 @@
         <v>1669</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C223" s="14">
         <v>23278623629</v>
@@ -8971,7 +8965,7 @@
         <v>16</v>
       </c>
       <c r="I223" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8979,16 +8973,16 @@
         <v>2000</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D224" s="21">
         <v>25012</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F224" s="20" t="s">
         <v>99</v>
@@ -8997,7 +8991,7 @@
         <v>48</v>
       </c>
       <c r="I224" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9005,7 +8999,7 @@
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C225" s="13">
         <v>23393669209</v>
@@ -9014,16 +9008,16 @@
         <v>35244</v>
       </c>
       <c r="E225" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G225" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I225" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9031,7 +9025,7 @@
         <v>1827</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C226" s="8">
         <v>20417910426</v>
@@ -9049,7 +9043,7 @@
         <v>16</v>
       </c>
       <c r="I226" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9101,7 +9095,7 @@
         <v>16</v>
       </c>
       <c r="I228" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9153,7 +9147,7 @@
         <v>16</v>
       </c>
       <c r="I230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="231" spans="1:9" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9161,7 +9155,7 @@
         <v>1682</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C231" s="14">
         <v>20447813719</v>
@@ -9187,7 +9181,7 @@
         <v>1809</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C232" s="8">
         <v>20245862092</v>
@@ -9199,13 +9193,13 @@
         <v>9</v>
       </c>
       <c r="F232" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G232" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9213,7 +9207,7 @@
         <v>1732</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C233" s="14">
         <v>20403596915</v>
@@ -9239,7 +9233,7 @@
         <v>1354</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C234" s="14">
         <v>20354316588</v>
@@ -9251,13 +9245,13 @@
         <v>9</v>
       </c>
       <c r="F234" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G234" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I234" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9265,7 +9259,7 @@
         <v>904</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C235" s="14">
         <v>27331329679</v>
@@ -9283,7 +9277,7 @@
         <v>71</v>
       </c>
       <c r="I235" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9309,7 +9303,7 @@
         <v>71</v>
       </c>
       <c r="I236" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9317,7 +9311,7 @@
         <v>1979</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C237" s="6">
         <v>27290421336</v>
@@ -9343,7 +9337,7 @@
         <v>882</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C238" s="14">
         <v>20291121358</v>
@@ -9369,7 +9363,7 @@
         <v>1921</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C239" s="6">
         <v>27311609756</v>
@@ -9387,7 +9381,7 @@
         <v>71</v>
       </c>
       <c r="I239" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9395,7 +9389,7 @@
         <v>1883</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C240" s="20">
         <v>20273195387</v>
@@ -9407,7 +9401,7 @@
         <v>9</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G240" s="15" t="s">
         <v>71</v>
@@ -9421,7 +9415,7 @@
         <v>1845</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C241" s="6">
         <v>20447654181</v>
@@ -9433,13 +9427,13 @@
         <v>9</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G241" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9465,7 +9459,7 @@
         <v>71</v>
       </c>
       <c r="I242" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9473,7 +9467,7 @@
         <v>914</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C243" s="14">
         <v>23423257539</v>
@@ -9491,7 +9485,7 @@
         <v>26</v>
       </c>
       <c r="I243" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9517,7 +9511,7 @@
         <v>16</v>
       </c>
       <c r="I244" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9543,7 +9537,7 @@
         <v>26</v>
       </c>
       <c r="I245" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9569,7 +9563,7 @@
         <v>71</v>
       </c>
       <c r="I246" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9595,7 +9589,7 @@
         <v>16</v>
       </c>
       <c r="I247" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9603,7 +9597,7 @@
         <v>1858</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C248" s="6">
         <v>27385143171</v>
@@ -9621,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="I248" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9629,7 +9623,7 @@
         <v>1935</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C249" s="6">
         <v>27403667515</v>
@@ -9641,13 +9635,13 @@
         <v>9</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I249" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9655,7 +9649,7 @@
         <v>1678</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C250" s="14">
         <v>20414924558</v>
@@ -9673,7 +9667,7 @@
         <v>16</v>
       </c>
       <c r="I250" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9681,7 +9675,7 @@
         <v>1762</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C251" s="14">
         <v>20376720285</v>
@@ -9693,7 +9687,7 @@
         <v>9</v>
       </c>
       <c r="F251" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G251" s="15" t="s">
         <v>71</v>
@@ -9707,7 +9701,7 @@
         <v>1934</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C252" s="6">
         <v>27425420173</v>
@@ -9725,7 +9719,7 @@
         <v>71</v>
       </c>
       <c r="I252" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9751,7 +9745,7 @@
         <v>71</v>
       </c>
       <c r="I253" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9759,7 +9753,7 @@
         <v>1055</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C254" s="14">
         <v>20407860781</v>
@@ -9777,7 +9771,7 @@
         <v>16</v>
       </c>
       <c r="I254" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9785,7 +9779,7 @@
         <v>1925</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C255" s="6">
         <v>23325632399</v>
@@ -9803,7 +9797,7 @@
         <v>71</v>
       </c>
       <c r="I255" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9811,7 +9805,7 @@
         <v>1863</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C256" s="6">
         <v>20395018168</v>
@@ -9829,7 +9823,7 @@
         <v>16</v>
       </c>
       <c r="I256" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9837,7 +9831,7 @@
         <v>1706</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C257" s="14">
         <v>23385957769</v>
@@ -9863,7 +9857,7 @@
         <v>1923</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C258" s="6">
         <v>20403860779</v>
@@ -9881,7 +9875,7 @@
         <v>71</v>
       </c>
       <c r="I258" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9889,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C259" s="6">
         <v>27389247281</v>
@@ -9898,16 +9892,16 @@
         <v>34849</v>
       </c>
       <c r="E259" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F259" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G259" s="15" t="s">
         <v>37</v>
       </c>
       <c r="I259" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9915,7 +9909,7 @@
         <v>1577</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C260" s="14">
         <v>27377148393</v>
@@ -9933,7 +9927,7 @@
         <v>71</v>
       </c>
       <c r="I260" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9941,7 +9935,7 @@
         <v>1703</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C261" s="14">
         <v>27320784978</v>
@@ -9967,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C262" s="6">
         <v>23369974084</v>
@@ -9976,10 +9970,10 @@
         <v>34033</v>
       </c>
       <c r="E262" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F262" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G262" s="15" t="s">
         <v>37</v>
@@ -9993,7 +9987,7 @@
         <v>1708</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C263" s="14">
         <v>20385241950</v>
@@ -10011,7 +10005,7 @@
         <v>16</v>
       </c>
       <c r="I263" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10019,7 +10013,7 @@
         <v>750</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C264" s="14">
         <v>23959047979</v>
@@ -10028,7 +10022,7 @@
         <v>28681</v>
       </c>
       <c r="E264" s="23" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F264" s="15" t="s">
         <v>242</v>
@@ -10037,7 +10031,7 @@
         <v>11</v>
       </c>
       <c r="I264" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10063,7 +10057,7 @@
         <v>48</v>
       </c>
       <c r="I265" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10071,7 +10065,7 @@
         <v>1847</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C266" s="6">
         <v>20382908792</v>
@@ -10089,7 +10083,7 @@
         <v>37</v>
       </c>
       <c r="I266" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10115,7 +10109,7 @@
         <v>16</v>
       </c>
       <c r="I267" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10167,7 +10161,7 @@
         <v>16</v>
       </c>
       <c r="I269" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10175,7 +10169,7 @@
         <v>13</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C270" s="14">
         <v>20329627684</v>
@@ -10184,16 +10178,16 @@
         <v>31912</v>
       </c>
       <c r="E270" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G270" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I270" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10201,7 +10195,7 @@
         <v>1060</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C271" s="14">
         <v>20348203410</v>
@@ -10219,7 +10213,7 @@
         <v>71</v>
       </c>
       <c r="I271" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10227,7 +10221,7 @@
         <v>1859</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C272" s="6">
         <v>20442319295</v>
@@ -10245,7 +10239,7 @@
         <v>16</v>
       </c>
       <c r="I272" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10253,7 +10247,7 @@
         <v>1982</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C273" s="6">
         <v>27421294750</v>
@@ -10297,7 +10291,7 @@
         <v>16</v>
       </c>
       <c r="I274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10305,7 +10299,7 @@
         <v>1915</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C275" s="6">
         <v>20423253461</v>
@@ -10323,7 +10317,7 @@
         <v>16</v>
       </c>
       <c r="I275" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10349,7 +10343,7 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10375,7 +10369,7 @@
         <v>16</v>
       </c>
       <c r="I277" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10401,7 +10395,7 @@
         <v>37</v>
       </c>
       <c r="I278" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10409,7 +10403,7 @@
         <v>1807</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C279" s="6">
         <v>20375802156</v>
@@ -10435,7 +10429,7 @@
         <v>1683</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C280" s="14">
         <v>20411086624</v>
@@ -10453,7 +10447,7 @@
         <v>71</v>
       </c>
       <c r="I280" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10479,7 +10473,7 @@
         <v>33</v>
       </c>
       <c r="I281" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10505,7 +10499,7 @@
         <v>16</v>
       </c>
       <c r="I282" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10513,7 +10507,7 @@
         <v>1677</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C283" s="14">
         <v>20413425604</v>
@@ -10565,7 +10559,7 @@
         <v>1718</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C285" s="14">
         <v>20960020414</v>
@@ -10583,7 +10577,7 @@
         <v>16</v>
       </c>
       <c r="I285" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10609,7 +10603,7 @@
         <v>71</v>
       </c>
       <c r="I286" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10617,7 +10611,7 @@
         <v>1057</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C287" s="14">
         <v>20366232738</v>
@@ -10635,7 +10629,7 @@
         <v>16</v>
       </c>
       <c r="I287" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10643,7 +10637,7 @@
         <v>930</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C288" s="14">
         <v>20278626580</v>
@@ -10661,7 +10655,7 @@
         <v>11</v>
       </c>
       <c r="I288" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10687,7 +10681,7 @@
         <v>11</v>
       </c>
       <c r="I289" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10713,7 +10707,7 @@
         <v>16</v>
       </c>
       <c r="I290" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10739,7 +10733,7 @@
         <v>16</v>
       </c>
       <c r="I291" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10747,7 +10741,7 @@
         <v>1780</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C292" s="14">
         <v>27308515031</v>
@@ -10759,13 +10753,13 @@
         <v>9</v>
       </c>
       <c r="F292" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G292" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I292" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10773,7 +10767,7 @@
         <v>1840</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C293" s="6">
         <v>20357041504</v>
@@ -10791,7 +10785,7 @@
         <v>71</v>
       </c>
       <c r="I293" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10799,7 +10793,7 @@
         <v>1805</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C294" s="14">
         <v>23431273209</v>
@@ -10817,7 +10811,7 @@
         <v>16</v>
       </c>
       <c r="I294" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10825,7 +10819,7 @@
         <v>1912</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C295" s="6">
         <v>20408762473</v>
@@ -10843,7 +10837,7 @@
         <v>16</v>
       </c>
       <c r="I295" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10851,7 +10845,7 @@
         <v>950</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C296" s="14">
         <v>27421252144</v>
@@ -10869,7 +10863,7 @@
         <v>26</v>
       </c>
       <c r="I296" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10877,7 +10871,7 @@
         <v>1842</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C297" s="6">
         <v>20432862748</v>
@@ -10895,7 +10889,7 @@
         <v>16</v>
       </c>
       <c r="I297" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10903,7 +10897,7 @@
         <v>1423</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C298" s="14">
         <v>27355861266</v>
@@ -10915,13 +10909,13 @@
         <v>9</v>
       </c>
       <c r="F298" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G298" s="15" t="s">
         <v>33</v>
       </c>
       <c r="I298" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10929,7 +10923,7 @@
         <v>1844</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C299" s="6">
         <v>20411617891</v>
@@ -10941,13 +10935,13 @@
         <v>9</v>
       </c>
       <c r="F299" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G299" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I299" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10981,7 +10975,7 @@
         <v>1756</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C301" s="14">
         <v>27379035499</v>
@@ -10993,13 +10987,13 @@
         <v>9</v>
       </c>
       <c r="F301" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G301" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I301" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11007,7 +11001,7 @@
         <v>1822</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C302" s="8">
         <v>20418599473</v>
@@ -11025,7 +11019,7 @@
         <v>16</v>
       </c>
       <c r="I302" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11033,7 +11027,7 @@
         <v>1918</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C303" s="6">
         <v>20364880643</v>
@@ -11045,13 +11039,13 @@
         <v>9</v>
       </c>
       <c r="F303" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G303" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I303" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11077,7 +11071,7 @@
         <v>37</v>
       </c>
       <c r="I304" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11085,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C305" s="6">
         <v>20316228691</v>
@@ -11094,16 +11088,16 @@
         <v>31258</v>
       </c>
       <c r="E305" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F305" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G305" s="15" t="s">
         <v>37</v>
       </c>
       <c r="I305" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11111,7 +11105,7 @@
         <v>1765</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C306" s="14">
         <v>27389831102</v>
@@ -11123,13 +11117,13 @@
         <v>9</v>
       </c>
       <c r="F306" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G306" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I306" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11137,7 +11131,7 @@
         <v>1815</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C307" s="8">
         <v>20316965491</v>
@@ -11155,7 +11149,7 @@
         <v>16</v>
       </c>
       <c r="I307" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11163,7 +11157,7 @@
         <v>1975</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C308" s="6">
         <v>20431280729</v>
@@ -11181,7 +11175,7 @@
         <v>71</v>
       </c>
       <c r="I308" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11189,7 +11183,7 @@
         <v>1855</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C309" s="6">
         <v>20308876633</v>
@@ -11207,7 +11201,7 @@
         <v>11</v>
       </c>
       <c r="I309" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11233,7 +11227,7 @@
         <v>16</v>
       </c>
       <c r="I310" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11241,7 +11235,7 @@
         <v>1886</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C311" s="20">
         <v>24428685519</v>
@@ -11259,7 +11253,7 @@
         <v>16</v>
       </c>
       <c r="I311" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11267,7 +11261,7 @@
         <v>1674</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C312" s="14">
         <v>20421301043</v>
@@ -11285,7 +11279,7 @@
         <v>16</v>
       </c>
       <c r="I312" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11311,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="I313" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11337,7 +11331,7 @@
         <v>48</v>
       </c>
       <c r="I314" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11389,7 +11383,7 @@
         <v>16</v>
       </c>
       <c r="I316" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11415,7 +11409,7 @@
         <v>33</v>
       </c>
       <c r="I317" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11423,7 +11417,7 @@
         <v>1784</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C318" s="14">
         <v>20390476974</v>
@@ -11441,7 +11435,7 @@
         <v>16</v>
       </c>
       <c r="I318" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11449,7 +11443,7 @@
         <v>1832</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C319" s="6">
         <v>27442319125</v>
@@ -11467,7 +11461,7 @@
         <v>71</v>
       </c>
       <c r="I319" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11475,7 +11469,7 @@
         <v>1884</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C320" s="20">
         <v>23316079989</v>
@@ -11501,7 +11495,7 @@
         <v>1426</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C321" s="14">
         <v>20323318302</v>
@@ -11519,7 +11513,7 @@
         <v>26</v>
       </c>
       <c r="I321" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11545,7 +11539,7 @@
         <v>16</v>
       </c>
       <c r="I322" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11571,7 +11565,7 @@
         <v>11</v>
       </c>
       <c r="I323" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11579,7 +11573,7 @@
         <v>1701</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C324" s="14">
         <v>20410864526</v>
@@ -11605,7 +11599,7 @@
         <v>1700</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C325" s="14">
         <v>20403663310</v>
@@ -11623,7 +11617,7 @@
         <v>16</v>
       </c>
       <c r="I325" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11631,7 +11625,7 @@
         <v>1977</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C326" s="6">
         <v>27416040961</v>
@@ -11643,7 +11637,7 @@
         <v>9</v>
       </c>
       <c r="F326" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G326" s="15" t="s">
         <v>71</v>
@@ -11657,7 +11651,7 @@
         <v>1980</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C327" s="6">
         <v>27322951467</v>
@@ -11675,7 +11669,7 @@
         <v>71</v>
       </c>
       <c r="I327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11683,7 +11677,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C328" s="14">
         <v>27321298015</v>
@@ -11692,16 +11686,16 @@
         <v>31398</v>
       </c>
       <c r="E328" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F328" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G328" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I328" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11709,7 +11703,7 @@
         <v>1232</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C329" s="14">
         <v>27307109323</v>
@@ -11727,7 +11721,7 @@
         <v>71</v>
       </c>
       <c r="I329" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11735,7 +11729,7 @@
         <v>1907</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C330" s="6">
         <v>27388490301</v>
@@ -11753,7 +11747,7 @@
         <v>71</v>
       </c>
       <c r="I330" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11779,7 +11773,7 @@
         <v>16</v>
       </c>
       <c r="I331" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11787,7 +11781,7 @@
         <v>1803</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C332" s="14">
         <v>20366473042</v>
@@ -11805,7 +11799,7 @@
         <v>71</v>
       </c>
       <c r="I332" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11857,7 +11851,7 @@
         <v>33</v>
       </c>
       <c r="I334" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11865,7 +11859,7 @@
         <v>1817</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C335" s="8">
         <v>23402154594</v>
@@ -11883,7 +11877,7 @@
         <v>16</v>
       </c>
       <c r="I335" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11917,7 +11911,7 @@
         <v>1693</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C337" s="14">
         <v>20406197736</v>
@@ -11935,7 +11929,7 @@
         <v>16</v>
       </c>
       <c r="I337" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11961,7 +11955,7 @@
         <v>71</v>
       </c>
       <c r="I338" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11969,7 +11963,7 @@
         <v>1782</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C339" s="14">
         <v>20417911341</v>
@@ -11987,7 +11981,7 @@
         <v>26</v>
       </c>
       <c r="I339" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11995,7 +11989,7 @@
         <v>1689</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C340" s="14">
         <v>20427685641</v>
@@ -12047,7 +12041,7 @@
         <v>1610</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C342" s="14">
         <v>20352909530</v>
@@ -12065,7 +12059,7 @@
         <v>16</v>
       </c>
       <c r="I342" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12073,7 +12067,7 @@
         <v>1772</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C343" s="14">
         <v>27416048970</v>
@@ -12091,7 +12085,7 @@
         <v>71</v>
       </c>
       <c r="I343" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12099,7 +12093,7 @@
         <v>1967</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C344" s="6">
         <v>20441795271</v>
@@ -12117,7 +12111,7 @@
         <v>16</v>
       </c>
       <c r="I344" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12125,7 +12119,7 @@
         <v>1892</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>610</v>
+        <v>785</v>
       </c>
       <c r="C345" s="20">
         <v>27383780581</v>
@@ -12143,7 +12137,7 @@
         <v>71</v>
       </c>
       <c r="I345" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12169,7 +12163,7 @@
         <v>16</v>
       </c>
       <c r="I346" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12177,7 +12171,7 @@
         <v>1576</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C347" s="14">
         <v>20329080685</v>
@@ -12195,7 +12189,7 @@
         <v>37</v>
       </c>
       <c r="I347" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12221,7 +12215,7 @@
         <v>33</v>
       </c>
       <c r="I348" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12229,7 +12223,7 @@
         <v>1870</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C349" s="20">
         <v>20442915076</v>
@@ -12273,7 +12267,7 @@
         <v>71</v>
       </c>
       <c r="I350" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12325,7 +12319,7 @@
         <v>71</v>
       </c>
       <c r="I352" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12333,7 +12327,7 @@
         <v>1806</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C353" s="8">
         <v>20327609506</v>
@@ -12377,7 +12371,7 @@
         <v>48</v>
       </c>
       <c r="I354" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12403,7 +12397,7 @@
         <v>37</v>
       </c>
       <c r="I355" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12429,7 +12423,7 @@
         <v>16</v>
       </c>
       <c r="I356" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12455,7 +12449,7 @@
         <v>33</v>
       </c>
       <c r="I357" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12481,7 +12475,7 @@
         <v>16</v>
       </c>
       <c r="I358" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12489,7 +12483,7 @@
         <v>1773</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C359" s="14">
         <v>20434555877</v>
@@ -12507,7 +12501,7 @@
         <v>71</v>
       </c>
       <c r="I359" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12515,7 +12509,7 @@
         <v>1710</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C360" s="14">
         <v>20336856192</v>
@@ -12533,7 +12527,7 @@
         <v>16</v>
       </c>
       <c r="I360" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12559,7 +12553,7 @@
         <v>33</v>
       </c>
       <c r="I361" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12567,7 +12561,7 @@
         <v>1675</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C362" s="14">
         <v>20403167798</v>
@@ -12585,7 +12579,7 @@
         <v>16</v>
       </c>
       <c r="I362" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12593,7 +12587,7 @@
         <v>1986</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C363" s="6">
         <v>20318999482</v>
@@ -12611,7 +12605,7 @@
         <v>16</v>
       </c>
       <c r="I363" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12619,7 +12613,7 @@
         <v>1908</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C364" s="6">
         <v>27414660989</v>
@@ -12637,7 +12631,7 @@
         <v>71</v>
       </c>
       <c r="I364" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12645,7 +12639,7 @@
         <v>1819</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C365" s="8">
         <v>20462955694</v>
@@ -12663,7 +12657,7 @@
         <v>16</v>
       </c>
       <c r="I365" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12689,7 +12683,7 @@
         <v>71</v>
       </c>
       <c r="I366" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12697,7 +12691,7 @@
         <v>1658</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C367" s="14">
         <v>20403151220</v>
@@ -12715,7 +12709,7 @@
         <v>16</v>
       </c>
       <c r="I367" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12723,7 +12717,7 @@
         <v>1727</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C368" s="14">
         <v>20421291773</v>
@@ -12749,7 +12743,7 @@
         <v>1656</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C369" s="14">
         <v>27324641160</v>
@@ -12767,7 +12761,7 @@
         <v>71</v>
       </c>
       <c r="I369" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12793,7 +12787,7 @@
         <v>71</v>
       </c>
       <c r="I370" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12801,7 +12795,7 @@
         <v>5</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C371" s="14">
         <v>20365430188</v>
@@ -12810,7 +12804,7 @@
         <v>33748</v>
       </c>
       <c r="E371" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F371" s="4" t="s">
         <v>297</v>
@@ -12871,7 +12865,7 @@
         <v>37</v>
       </c>
       <c r="I373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12897,7 +12891,7 @@
         <v>37</v>
       </c>
       <c r="I374" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12923,7 +12917,7 @@
         <v>71</v>
       </c>
       <c r="I375" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12931,7 +12925,7 @@
         <v>1877</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C376" s="20">
         <v>23312576929</v>
@@ -12949,7 +12943,7 @@
         <v>71</v>
       </c>
       <c r="I376" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12975,7 +12969,7 @@
         <v>71</v>
       </c>
       <c r="I377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13001,7 +12995,7 @@
         <v>16</v>
       </c>
       <c r="I378" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13009,7 +13003,7 @@
         <v>1871</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C379" s="20">
         <v>20371866354</v>
@@ -13021,13 +13015,13 @@
         <v>9</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G379" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I379" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13035,7 +13029,7 @@
         <v>1963</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C380" s="6">
         <v>20443315692</v>
@@ -13053,7 +13047,7 @@
         <v>71</v>
       </c>
       <c r="I380" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13079,7 +13073,7 @@
         <v>16</v>
       </c>
       <c r="I381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13105,7 +13099,7 @@
         <v>16</v>
       </c>
       <c r="I382" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13113,7 +13107,7 @@
         <v>1940</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C383" s="6">
         <v>20403594599</v>
@@ -13131,7 +13125,7 @@
         <v>16</v>
       </c>
       <c r="I383" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13139,7 +13133,7 @@
         <v>1932</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C384" s="6">
         <v>27459488540</v>
@@ -13151,13 +13145,13 @@
         <v>9</v>
       </c>
       <c r="F384" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G384" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I384" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13165,7 +13159,7 @@
         <v>933</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C385" s="14">
         <v>20273357085</v>
@@ -13183,7 +13177,7 @@
         <v>16</v>
       </c>
       <c r="I385" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13209,7 +13203,7 @@
         <v>33</v>
       </c>
       <c r="I386" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13217,7 +13211,7 @@
         <v>1898</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C387" s="6">
         <v>27391267850</v>
@@ -13235,7 +13229,7 @@
         <v>71</v>
       </c>
       <c r="I387" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13243,7 +13237,7 @@
         <v>1759</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C388" s="14">
         <v>20399505209</v>
@@ -13255,7 +13249,7 @@
         <v>9</v>
       </c>
       <c r="F388" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G388" s="15" t="s">
         <v>71</v>
@@ -13269,7 +13263,7 @@
         <v>1671</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C389" s="14">
         <v>20355871119</v>
@@ -13287,7 +13281,7 @@
         <v>16</v>
       </c>
       <c r="I389" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13295,7 +13289,7 @@
         <v>1848</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C390" s="6">
         <v>20419760189</v>
@@ -13313,7 +13307,7 @@
         <v>71</v>
       </c>
       <c r="I390" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13373,7 +13367,7 @@
         <v>1922</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C393" s="6">
         <v>20344444820</v>
@@ -13399,7 +13393,7 @@
         <v>23</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C394" s="13">
         <v>27326504918</v>
@@ -13408,16 +13402,16 @@
         <v>31726</v>
       </c>
       <c r="E394" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F394" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G394" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I394" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13469,7 +13463,7 @@
         <v>11</v>
       </c>
       <c r="I396" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13495,7 +13489,7 @@
         <v>33</v>
       </c>
       <c r="I397" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13503,7 +13497,7 @@
         <v>1811</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C398" s="8">
         <v>20205403184</v>
@@ -13515,13 +13509,13 @@
         <v>9</v>
       </c>
       <c r="F398" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G398" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I398" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13529,7 +13523,7 @@
         <v>1837</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C399" s="6">
         <v>27421787110</v>
@@ -13547,7 +13541,7 @@
         <v>71</v>
       </c>
       <c r="I399" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13555,7 +13549,7 @@
         <v>1924</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C400" s="6">
         <v>20305483037</v>
@@ -13573,7 +13567,7 @@
         <v>16</v>
       </c>
       <c r="I400" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13581,7 +13575,7 @@
         <v>5</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C401" s="14">
         <v>20366910132</v>
@@ -13590,16 +13584,16 @@
         <v>33585</v>
       </c>
       <c r="E401" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F401" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G401" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I401" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13607,7 +13601,7 @@
         <v>1781</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C402" s="14">
         <v>20373360466</v>
@@ -13625,7 +13619,7 @@
         <v>26</v>
       </c>
       <c r="I402" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13633,7 +13627,7 @@
         <v>1970</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C403" s="6">
         <v>27365451031</v>
@@ -13651,7 +13645,7 @@
         <v>16</v>
       </c>
       <c r="I403" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13659,7 +13653,7 @@
         <v>1958</v>
       </c>
       <c r="B404" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C404" s="6">
         <v>27349392602</v>
@@ -13703,7 +13697,7 @@
         <v>71</v>
       </c>
       <c r="I405" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13729,7 +13723,7 @@
         <v>16</v>
       </c>
       <c r="I406" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13737,7 +13731,7 @@
         <v>1852</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C407" s="6">
         <v>20401223550</v>
@@ -13755,7 +13749,7 @@
         <v>16</v>
       </c>
       <c r="I407" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13763,7 +13757,7 @@
         <v>1956</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C408" s="6">
         <v>27347147538</v>
@@ -13781,7 +13775,7 @@
         <v>16</v>
       </c>
       <c r="I408" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13789,7 +13783,7 @@
         <v>1927</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C409" s="6">
         <v>20361116837</v>
@@ -13801,13 +13795,13 @@
         <v>9</v>
       </c>
       <c r="F409" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G409" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I409" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13833,7 +13827,7 @@
         <v>16</v>
       </c>
       <c r="I410" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13841,7 +13835,7 @@
         <v>1608</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C411" s="14">
         <v>20253281791</v>
@@ -13859,7 +13853,7 @@
         <v>11</v>
       </c>
       <c r="I411" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13867,7 +13861,7 @@
         <v>1745</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C412" s="14">
         <v>27259009451</v>
@@ -13885,7 +13879,7 @@
         <v>71</v>
       </c>
       <c r="I412" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13893,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C413" s="14">
         <v>20297875907</v>
@@ -13902,16 +13896,16 @@
         <v>30274</v>
       </c>
       <c r="E413" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F413" s="15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G413" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I413" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13937,7 +13931,7 @@
         <v>16</v>
       </c>
       <c r="I414" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13945,7 +13939,7 @@
         <v>1872</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C415" s="20">
         <v>23343926014</v>
@@ -13957,13 +13951,13 @@
         <v>9</v>
       </c>
       <c r="F415" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G415" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I415" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13971,7 +13965,7 @@
         <v>1754</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C416" s="14">
         <v>20364447001</v>
@@ -13989,7 +13983,7 @@
         <v>71</v>
       </c>
       <c r="I416" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14015,7 +14009,7 @@
         <v>33</v>
       </c>
       <c r="I417" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14023,7 +14017,7 @@
         <v>916</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C418" s="14">
         <v>20474412971</v>
@@ -14049,7 +14043,7 @@
         <v>912</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C419" s="14">
         <v>20409702199</v>
@@ -14067,7 +14061,7 @@
         <v>16</v>
       </c>
       <c r="I419" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14075,7 +14069,7 @@
         <v>1659</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C420" s="14">
         <v>20377149018</v>
@@ -14093,7 +14087,7 @@
         <v>16</v>
       </c>
       <c r="I420" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14101,7 +14095,7 @@
         <v>1672</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C421" s="14">
         <v>20397554792</v>
@@ -14119,7 +14113,7 @@
         <v>16</v>
       </c>
       <c r="I421" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14127,7 +14121,7 @@
         <v>1764</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C422" s="14">
         <v>20401193406</v>
@@ -14179,7 +14173,7 @@
         <v>1942</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C424" s="6">
         <v>27250984206</v>
@@ -14202,32 +14196,32 @@
     </row>
     <row r="425" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I425" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I426" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I427" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I428" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I429" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I430" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14237,17 +14231,17 @@
     </row>
     <row r="432" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I432" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="433" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I433" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="434" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I434" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="435" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14262,7 +14256,7 @@
     </row>
     <row r="437" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I437" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="438" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14272,22 +14266,22 @@
     </row>
     <row r="439" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I439" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="440" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I440" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="441" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I442" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="443" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14297,7 +14291,7 @@
     </row>
     <row r="444" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I444" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="445" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14307,22 +14301,22 @@
     </row>
     <row r="446" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I446" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="447" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I447" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="448" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I448" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="449" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I449" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="450" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14332,22 +14326,22 @@
     </row>
     <row r="451" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I451" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="452" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I452" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="453" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I453" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="454" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I454" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="455" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14357,42 +14351,42 @@
     </row>
     <row r="456" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I456" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="457" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I457" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="458" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I458" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="459" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I459" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="460" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I460" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="461" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I461" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="462" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I462" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="463" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I463" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="464" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14407,67 +14401,67 @@
     </row>
     <row r="466" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I466" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="467" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I467" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="468" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I468" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="469" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I469" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="470" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I470" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="471" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I471" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="472" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I472" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="473" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I473" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="474" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I474" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="475" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I475" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="476" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I476" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="477" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I477" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="478" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I478" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="479" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14477,17 +14471,17 @@
     </row>
     <row r="480" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I480" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="481" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I481" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="482" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I482" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="483" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14497,32 +14491,32 @@
     </row>
     <row r="484" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I484" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="485" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I485" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="486" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I486" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="487" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I487" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="488" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I488" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="489" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I489" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14532,12 +14526,12 @@
     </row>
     <row r="491" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I491" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="492" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I492" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="493" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14552,17 +14546,17 @@
     </row>
     <row r="495" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I495" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="496" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I496" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="497" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I497" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="498" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14572,7 +14566,7 @@
     </row>
     <row r="499" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I499" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="500" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14582,17 +14576,17 @@
     </row>
     <row r="501" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I501" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="502" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I502" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="503" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I503" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="504" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14602,47 +14596,47 @@
     </row>
     <row r="505" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I505" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="506" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I506" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="507" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I507" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="508" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I508" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="509" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I509" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="510" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I510" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="511" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I511" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="512" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I512" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="513" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I513" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="514" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14652,17 +14646,17 @@
     </row>
     <row r="515" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I515" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="516" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I516" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="517" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I517" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="518" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14672,122 +14666,122 @@
     </row>
     <row r="519" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I519" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="520" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I520" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="521" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I521" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="522" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I522" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="523" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I523" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="524" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I524" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="525" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I525" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="526" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I526" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="527" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I527" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="528" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I528" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="529" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I529" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="530" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I530" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="531" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I531" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="532" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I532" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="533" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I533" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="534" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I534" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="535" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I535" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="536" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I536" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="537" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I537" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="538" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I538" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="539" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I539" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="540" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I540" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="541" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I541" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="542" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I542" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="543" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14797,7 +14791,7 @@
     </row>
     <row r="544" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I544" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="545" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14807,27 +14801,27 @@
     </row>
     <row r="546" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I546" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="547" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I547" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="548" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I548" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="549" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I549" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="550" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I550" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="551" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14837,7 +14831,7 @@
     </row>
     <row r="552" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I552" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="553" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14847,32 +14841,32 @@
     </row>
     <row r="554" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I554" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="555" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I555" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="556" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I556" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="557" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I557" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="558" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I558" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="559" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I559" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="560" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14882,47 +14876,47 @@
     </row>
     <row r="561" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I561" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="562" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I562" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="563" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I563" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="564" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I564" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="565" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I565" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="566" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I566" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="567" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I567" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="568" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I568" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="569" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I569" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="570" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14932,12 +14926,12 @@
     </row>
     <row r="571" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I571" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="572" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I572" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="573" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14952,7 +14946,7 @@
     </row>
     <row r="575" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I575" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="576" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14962,17 +14956,17 @@
     </row>
     <row r="577" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I577" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="578" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I578" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="579" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I579" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="580" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -14987,7 +14981,7 @@
     </row>
     <row r="582" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I582" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="583" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15002,27 +14996,27 @@
     </row>
     <row r="585" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I585" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="586" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I586" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="587" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I587" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="588" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I588" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="589" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I589" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="590" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15032,27 +15026,27 @@
     </row>
     <row r="591" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I591" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="592" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I592" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="593" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I593" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="594" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I594" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="595" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I595" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="596" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15062,12 +15056,12 @@
     </row>
     <row r="597" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I597" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="598" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I598" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="599" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15077,7 +15071,7 @@
     </row>
     <row r="600" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I600" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="601" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15102,17 +15096,17 @@
     </row>
     <row r="605" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I605" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="606" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I606" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="607" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I607" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="608" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15122,12 +15116,12 @@
     </row>
     <row r="609" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I609" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="610" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I610" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="611" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15137,22 +15131,22 @@
     </row>
     <row r="612" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I612" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="613" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I613" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="614" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I614" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="615" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I615" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="616" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15162,7 +15156,7 @@
     </row>
     <row r="617" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I617" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="618" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15172,37 +15166,37 @@
     </row>
     <row r="619" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I619" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="620" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I620" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="621" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I621" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="622" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I622" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="623" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I623" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="624" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I624" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="625" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I625" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="626" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15212,27 +15206,27 @@
     </row>
     <row r="627" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I627" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="628" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I628" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="629" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I629" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="630" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I630" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="631" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I631" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="632" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15247,12 +15241,12 @@
     </row>
     <row r="634" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I634" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="635" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I635" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="636" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15267,17 +15261,17 @@
     </row>
     <row r="638" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I638" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="639" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I639" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="640" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I640" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="641" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15287,67 +15281,67 @@
     </row>
     <row r="642" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I642" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="643" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I643" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="644" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I644" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="645" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I645" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="646" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I646" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="647" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I647" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="648" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I648" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="649" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I649" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="650" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I650" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="651" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I651" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="652" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I652" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="653" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I653" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="654" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I654" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="655" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15357,7 +15351,7 @@
     </row>
     <row r="656" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I656" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="657" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15367,102 +15361,102 @@
     </row>
     <row r="658" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I658" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="659" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I659" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="660" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I660" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="661" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I661" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="662" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I662" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="663" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I663" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="664" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I664" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="665" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I665" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="666" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I666" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="667" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I667" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="668" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I668" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="669" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I669" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="670" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I670" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="671" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I671" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="672" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I672" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="673" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I673" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="674" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I674" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="675" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I675" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="676" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I676" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="677" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I677" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="678" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15472,57 +15466,57 @@
     </row>
     <row r="679" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I679" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="680" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I680" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="681" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I681" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="682" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I682" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="683" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I683" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="684" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I684" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="685" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I685" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="686" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I686" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="687" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I687" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="688" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I688" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="689" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I689" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="690" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -15532,26 +15526,26 @@
     </row>
     <row r="691" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I691" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="692" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I692" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="693" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I693" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="694" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I694" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
+  <autoFilter ref="A1:G424">
     <sortState ref="A2:G424">
       <sortCondition ref="B1"/>
     </sortState>

--- a/Datos IA.xlsx
+++ b/Datos IA.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="513">
   <si>
     <t>LEGAJO</t>
   </si>
@@ -211,9 +211,6 @@
     <t>1.Director</t>
   </si>
   <si>
-    <t>AGUIRRE JONATAN EZEQUIEL</t>
-  </si>
-  <si>
     <t>ROVETTO ADRIAN JESUS</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>7. Tecnico</t>
   </si>
   <si>
-    <t>AGUIRRE MIGUEL ANTONIO</t>
-  </si>
-  <si>
     <t>BARRA DIEGO CARLOS GABRIEL</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>8. Especialista</t>
   </si>
   <si>
-    <t>ALARCON MORERA GUILLERMO EDUARDO</t>
-  </si>
-  <si>
     <t>TONDO MARIA EUGENIA</t>
   </si>
   <si>
@@ -274,15 +265,9 @@
     <t>MUZZIO MARIO GERMAN</t>
   </si>
   <si>
-    <t>ALCARAZ MAXIMO LEONEL</t>
-  </si>
-  <si>
     <t>BOGLIONE MARIANO MARTIN</t>
   </si>
   <si>
-    <t>ALEMI NATALI BELEN</t>
-  </si>
-  <si>
     <t>BRAGOS CARLA BELEN</t>
   </si>
   <si>
@@ -298,15 +283,9 @@
     <t>ROTULADO QUIMICO</t>
   </si>
   <si>
-    <t>ALI JESUS EZEQUIEL</t>
-  </si>
-  <si>
     <t>TARDIO PABLO</t>
   </si>
   <si>
-    <t>ALMADA LIHUEL SANTIAGO</t>
-  </si>
-  <si>
     <t>GAUNA DAVID NATANAEL</t>
   </si>
   <si>
@@ -328,21 +307,12 @@
     <t>LIMPIEZA</t>
   </si>
   <si>
-    <t>ALVAREZ FRANCO NAHUEL</t>
-  </si>
-  <si>
     <t>IMPRENTA PLANA</t>
   </si>
   <si>
-    <t>ALVAREZ NICOLAS</t>
-  </si>
-  <si>
     <t>LOVERA MELISA</t>
   </si>
   <si>
-    <t>ANDRADA LUCAS FABRIZIO</t>
-  </si>
-  <si>
     <t>OVANDO MATIAS EMANUEL</t>
   </si>
   <si>
@@ -376,18 +346,12 @@
     <t>PRODUCCION Y ACONDICIONAMIENTO DE ESPORAS</t>
   </si>
   <si>
-    <t>AQUINO WALTER MAXIMILIANO</t>
-  </si>
-  <si>
     <t>POLITI MARTIN</t>
   </si>
   <si>
     <t>CALIDAD PROCESOS</t>
   </si>
   <si>
-    <t>ARANCIBIA EZEQUIEL SEBASTIAN</t>
-  </si>
-  <si>
     <t>GARBERO GARZA EMANUEL</t>
   </si>
   <si>
@@ -400,9 +364,6 @@
     <t>MANTENIMIENTO SERVICIOS</t>
   </si>
   <si>
-    <t>ARCADI AGUSTINA SOL</t>
-  </si>
-  <si>
     <t>TOLEDO FABIAN ALEJANDRO</t>
   </si>
   <si>
@@ -448,27 +409,18 @@
     <t>PRETI JUAN MANUEL</t>
   </si>
   <si>
-    <t>AVALOS TOMAS IVAN</t>
-  </si>
-  <si>
     <t>BALESTRINI MARCOS CESAR</t>
   </si>
   <si>
     <t>ROTULADO BIOLOGICO</t>
   </si>
   <si>
-    <t>AVETTA VALENTINA DENISE</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOPEZ MONASTERIO CRISTIAN </t>
   </si>
   <si>
     <t>PROGRAMACION Y CONTROL DE LA PRODUCCION</t>
   </si>
   <si>
-    <t>AXEL PABLO</t>
-  </si>
-  <si>
     <t>COSSANI ANDRES MARTIN</t>
   </si>
   <si>
@@ -478,9 +430,6 @@
     <t>AYALA ALEJANDRO DAVID</t>
   </si>
   <si>
-    <t>AYALA ALEJANDRO EMANUEL</t>
-  </si>
-  <si>
     <t>GALLUCCI ANABEL</t>
   </si>
   <si>
@@ -493,21 +442,12 @@
     <t>PETROCINI GABRIEL ANGEL</t>
   </si>
   <si>
-    <t>AYALA JUAN JOSE</t>
-  </si>
-  <si>
     <t>GIORDANO MATIAS EDGARDO</t>
   </si>
   <si>
-    <t>BACELLI MARIA PAZ</t>
-  </si>
-  <si>
     <t>SALOMON DAIANA SOFIA</t>
   </si>
   <si>
-    <t>BAHL LORENZO GABRIEL</t>
-  </si>
-  <si>
     <t>CABRERA MARQUEZ LUCILA</t>
   </si>
   <si>
@@ -520,24 +460,15 @@
     <t>PREIMPRESION DE ROTULOS</t>
   </si>
   <si>
-    <t>BAILA SEBASTIAN NICOLAS</t>
-  </si>
-  <si>
     <t>MEONIS FLORENCIA LIA</t>
   </si>
   <si>
-    <t>BALBUENA DAIRA EDITH</t>
-  </si>
-  <si>
     <t>VASQUEZ MARTIN</t>
   </si>
   <si>
     <t>FERNANDEZ ANA LUCIA</t>
   </si>
   <si>
-    <t>BARBOZA AGUSTIN EMANUEL</t>
-  </si>
-  <si>
     <t>ROVERE NICOLAS ANDRES</t>
   </si>
   <si>
@@ -559,33 +490,18 @@
     <t>LIMPIEZA PRODUCCION</t>
   </si>
   <si>
-    <t>BARROSO VALERIA JANINA</t>
-  </si>
-  <si>
     <t>ESPINDOLA VANESA BEATRIZ</t>
   </si>
   <si>
-    <t>BARTA LAUREANO</t>
-  </si>
-  <si>
     <t>TOLEDO CAMILA BELEN</t>
   </si>
   <si>
-    <t>BARZOLA CESAR JULIAN</t>
-  </si>
-  <si>
     <t>LUCERO HERNAN JORGE</t>
   </si>
   <si>
-    <t>BASTERI FEDERICO ANDRES</t>
-  </si>
-  <si>
     <t>PEDEMONTE EZEQUIEL ANGEL</t>
   </si>
   <si>
-    <t>BATTAGLIA ANDRES</t>
-  </si>
-  <si>
     <t>MERLO LIAN EMANUEL</t>
   </si>
   <si>
@@ -595,18 +511,12 @@
     <t>MANTENIMIENTO</t>
   </si>
   <si>
-    <t>BELARDINELLI MATIAS JESUS</t>
-  </si>
-  <si>
     <t>RINALDELLI MAXIMILIANO</t>
   </si>
   <si>
     <t>ROJAS JESICA BELEN</t>
   </si>
   <si>
-    <t>BELLETTI AYELEN ILEANA</t>
-  </si>
-  <si>
     <t>SEGOVIA OSCAR PEDRO</t>
   </si>
   <si>
@@ -637,9 +547,6 @@
     <t>KASTELAN EZEQUIEL</t>
   </si>
   <si>
-    <t>BENVENUTTO VICTORIA</t>
-  </si>
-  <si>
     <t>CREUS NICOLAS MAXIMILIANO</t>
   </si>
   <si>
@@ -658,9 +565,6 @@
     <t>CARDOSO PABLO MARTIN</t>
   </si>
   <si>
-    <t>BERTERO ROSALIA FERNANDA</t>
-  </si>
-  <si>
     <t>BERTINAT ELIAS</t>
   </si>
   <si>
@@ -703,16 +607,10 @@
     <t>CALIDAD DE IL e IVD</t>
   </si>
   <si>
-    <t>BIROLO STEFANIA</t>
-  </si>
-  <si>
     <t>LEIVA CELINA ANDREA</t>
   </si>
   <si>
     <t>RECEPCION</t>
-  </si>
-  <si>
-    <t>BLANCO SOL ALEJANDRA</t>
   </si>
   <si>
     <t>VANZINI LUCAS JOSE MARIA</t>
@@ -2260,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="E409" sqref="E409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2298,16 +2196,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1944</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="C2" s="6">
         <v>20343681829</v>
@@ -2319,14 +2215,12 @@
         <v>8</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
@@ -2345,21 +2239,19 @@
         <v>8</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>450</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C4" s="13">
         <v>20291123210</v>
@@ -2371,14 +2263,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
@@ -2397,14 +2287,12 @@
         <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
@@ -2423,21 +2311,19 @@
         <v>8</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>1233</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="13">
         <v>27340006769</v>
@@ -2449,21 +2335,19 @@
         <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13">
         <v>23395691694</v>
@@ -2472,24 +2356,22 @@
         <v>35360</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>216</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="22">
         <v>20309015593</v>
@@ -2498,17 +2380,15 @@
         <v>30798</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -2532,16 +2412,14 @@
       <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>290</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13">
         <v>20309856717</v>
@@ -2553,21 +2431,19 @@
         <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>1679</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13">
         <v>23419466719</v>
@@ -2579,21 +2455,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>1795</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C13" s="13">
         <v>20348193563</v>
@@ -2605,21 +2479,19 @@
         <v>8</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>254</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" s="13">
         <v>20354571324</v>
@@ -2631,21 +2503,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
-        <v>99</v>
-      </c>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>1722</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C15" s="13">
         <v>23421825009</v>
@@ -2657,21 +2527,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>241</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13">
         <v>20378317771</v>
@@ -2683,21 +2551,19 @@
         <v>8</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>41</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="13">
         <v>20323791458</v>
@@ -2709,21 +2575,19 @@
         <v>8</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>283</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C18" s="13">
         <v>20190828221</v>
@@ -2735,21 +2599,19 @@
         <v>8</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>114</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>1704</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C19" s="13">
         <v>20372658771</v>
@@ -2761,21 +2623,19 @@
         <v>8</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I19" t="s">
-        <v>116</v>
-      </c>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>1880</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C20" s="19">
         <v>27318901495</v>
@@ -2787,21 +2647,19 @@
         <v>8</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" t="s">
-        <v>118</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>1665</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C21" s="13">
         <v>20431676487</v>
@@ -2813,21 +2671,19 @@
         <v>8</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>1797</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C22" s="13">
         <v>20456564357</v>
@@ -2839,21 +2695,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I22" t="s">
-        <v>125</v>
-      </c>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>1981</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C23" s="6">
         <v>20393689995</v>
@@ -2865,21 +2719,19 @@
         <v>8</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" t="s">
-        <v>128</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>1971</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6">
         <v>20434241104</v>
@@ -2891,21 +2743,19 @@
         <v>8</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
-        <v>136</v>
-      </c>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>15</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C25" s="13">
         <v>23340402979</v>
@@ -2914,24 +2764,22 @@
         <v>32454</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s">
-        <v>138</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>167</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C26" s="13">
         <v>20296509141</v>
@@ -2943,21 +2791,19 @@
         <v>8</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>140</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>1900</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6">
         <v>27305171692</v>
@@ -2969,21 +2815,19 @@
         <v>8</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I27" t="s">
-        <v>142</v>
-      </c>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>39</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
         <v>23383751829</v>
@@ -2995,21 +2839,19 @@
         <v>8</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I28" t="s">
-        <v>144</v>
-      </c>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>1662</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="C29" s="13">
         <v>20405530229</v>
@@ -3021,21 +2863,19 @@
         <v>8</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I29" t="s">
-        <v>148</v>
-      </c>
+      <c r="I29"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>1810</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C30" s="8">
         <v>20410942675</v>
@@ -3047,21 +2887,19 @@
         <v>8</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>151</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>1843</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="C31" s="6">
         <v>20365787418</v>
@@ -3073,21 +2911,19 @@
         <v>8</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>162</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>885</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C32" s="13">
         <v>23320780519</v>
@@ -3099,21 +2935,19 @@
         <v>8</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s">
-        <v>169</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>852</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C33" s="13">
         <v>20313644961</v>
@@ -3125,21 +2959,19 @@
         <v>8</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" t="s">
-        <v>184</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>427</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C34" s="13">
         <v>20268583549</v>
@@ -3151,21 +2983,19 @@
         <v>8</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I34" t="s">
-        <v>187</v>
-      </c>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>1820</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C35" s="8">
         <v>20397554296</v>
@@ -3177,7 +3007,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>15</v>
@@ -3189,7 +3019,7 @@
         <v>1873</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C36" s="19">
         <v>20342385932</v>
@@ -3201,10 +3031,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I36"/>
     </row>
@@ -3213,7 +3043,7 @@
         <v>1882</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C37" s="19">
         <v>27280967160</v>
@@ -3225,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>10</v>
@@ -3237,7 +3067,7 @@
         <v>1976</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="C38" s="6">
         <v>27287717038</v>
@@ -3249,10 +3079,10 @@
         <v>8</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I38"/>
     </row>
@@ -3261,7 +3091,7 @@
         <v>1747</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C39" s="13">
         <v>20399495912</v>
@@ -3273,10 +3103,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I39"/>
     </row>
@@ -3285,7 +3115,7 @@
         <v>1770</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C40" s="13">
         <v>20311265211</v>
@@ -3297,10 +3127,10 @@
         <v>8</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40"/>
     </row>
@@ -3309,7 +3139,7 @@
         <v>1712</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C41" s="13">
         <v>20441814942</v>
@@ -3333,7 +3163,7 @@
         <v>681</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C42" s="13">
         <v>20375805554</v>
@@ -3345,10 +3175,10 @@
         <v>8</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I42"/>
     </row>
@@ -3357,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C43" s="13">
         <v>20350802011</v>
@@ -3366,13 +3196,13 @@
         <v>32813</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I43"/>
     </row>
@@ -3381,7 +3211,7 @@
         <v>1866</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="C44" s="6">
         <v>20437176583</v>
@@ -3393,7 +3223,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>15</v>
@@ -3405,7 +3235,7 @@
         <v>1821</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C45" s="8">
         <v>20454121261</v>
@@ -3417,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>15</v>
@@ -3429,7 +3259,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C46" s="13">
         <v>20282568854</v>
@@ -3441,7 +3271,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>15</v>
@@ -3453,7 +3283,7 @@
         <v>980</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C47" s="13">
         <v>27958024229</v>
@@ -3465,10 +3295,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I47"/>
     </row>
@@ -3477,7 +3307,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C48" s="13">
         <v>20954349692</v>
@@ -3489,10 +3319,10 @@
         <v>8</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I48"/>
     </row>
@@ -3501,7 +3331,7 @@
         <v>1816</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8">
         <v>20383760721</v>
@@ -3513,7 +3343,7 @@
         <v>8</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>15</v>
@@ -3525,7 +3355,7 @@
         <v>71</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C50" s="13">
         <v>27351524133</v>
@@ -3537,10 +3367,10 @@
         <v>8</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I50"/>
     </row>
@@ -3549,7 +3379,7 @@
         <v>1606</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C51" s="13">
         <v>23402635339</v>
@@ -3561,10 +3391,10 @@
         <v>8</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I51"/>
     </row>
@@ -3573,7 +3403,7 @@
         <v>588</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C52" s="13">
         <v>20322782447</v>
@@ -3585,10 +3415,10 @@
         <v>8</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I52"/>
     </row>
@@ -3597,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C53" s="13">
         <v>27321488272</v>
@@ -3606,13 +3436,13 @@
         <v>31493</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I53"/>
     </row>
@@ -3621,7 +3451,7 @@
         <v>1955</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C54" s="6">
         <v>27417907160</v>
@@ -3633,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>15</v>
@@ -3645,7 +3475,7 @@
         <v>1657</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C55" s="13">
         <v>20251769339</v>
@@ -3657,7 +3487,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>15</v>
@@ -3669,7 +3499,7 @@
         <v>1825</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C56" s="8">
         <v>20449178581</v>
@@ -3681,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>15</v>
@@ -3693,7 +3523,7 @@
         <v>1933</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C57" s="6">
         <v>20374489233</v>
@@ -3705,10 +3535,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I57" s="5"/>
     </row>
@@ -3717,7 +3547,7 @@
         <v>1818</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C58" s="8">
         <v>23361956494</v>
@@ -3729,7 +3559,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>15</v>
@@ -3741,7 +3571,7 @@
         <v>1834</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C59" s="6">
         <v>20400371564</v>
@@ -3753,7 +3583,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>15</v>
@@ -3765,7 +3595,7 @@
         <v>182</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C60" s="13">
         <v>27374864942</v>
@@ -3777,10 +3607,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I60"/>
     </row>
@@ -3789,7 +3619,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="C61" s="6">
         <v>20327564421</v>
@@ -3798,13 +3628,13 @@
         <v>31800</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I61"/>
     </row>
@@ -3813,7 +3643,7 @@
         <v>1919</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C62" s="6">
         <v>27424816383</v>
@@ -3825,10 +3655,10 @@
         <v>8</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I62"/>
     </row>
@@ -3837,7 +3667,7 @@
         <v>1874</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C63" s="19">
         <v>20258400578</v>
@@ -3849,10 +3679,10 @@
         <v>8</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I63"/>
     </row>
@@ -3861,7 +3691,7 @@
         <v>1771</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="C64" s="13">
         <v>20293118559</v>
@@ -3873,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>10</v>
@@ -3885,7 +3715,7 @@
         <v>521</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C65" s="13">
         <v>20284868545</v>
@@ -3897,10 +3727,10 @@
         <v>8</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I65"/>
     </row>
@@ -3909,7 +3739,7 @@
         <v>905</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C66" s="13">
         <v>20379019901</v>
@@ -3921,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>15</v>
@@ -3933,7 +3763,7 @@
         <v>278</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C67" s="13">
         <v>20264233225</v>
@@ -3945,7 +3775,7 @@
         <v>8</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>15</v>
@@ -3957,7 +3787,7 @@
         <v>1783</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C68" s="13">
         <v>20449957688</v>
@@ -3969,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>15</v>
@@ -3981,7 +3811,7 @@
         <v>1666</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="C69" s="13">
         <v>20418600773</v>
@@ -3993,7 +3823,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>15</v>
@@ -4005,7 +3835,7 @@
         <v>335</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C70" s="13">
         <v>27391191692</v>
@@ -4017,10 +3847,10 @@
         <v>8</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I70"/>
     </row>
@@ -4029,7 +3859,7 @@
         <v>1869</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C71" s="19">
         <v>27372957552</v>
@@ -4041,10 +3871,10 @@
         <v>8</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I71"/>
     </row>
@@ -4053,7 +3883,7 @@
         <v>1390</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C72" s="13">
         <v>20246166278</v>
@@ -4065,10 +3895,10 @@
         <v>8</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I72"/>
     </row>
@@ -4077,7 +3907,7 @@
         <v>906</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C73" s="13">
         <v>20424316610</v>
@@ -4089,7 +3919,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>15</v>
@@ -4101,7 +3931,7 @@
         <v>1791</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C74" s="13">
         <v>20430064356</v>
@@ -4113,7 +3943,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>15</v>
@@ -4125,7 +3955,7 @@
         <v>16</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C75" s="6">
         <v>27339689992</v>
@@ -4134,13 +3964,13 @@
         <v>32452</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I75"/>
     </row>
@@ -4149,7 +3979,7 @@
         <v>1937</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="C76" s="6">
         <v>20279783051</v>
@@ -4161,10 +3991,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I76"/>
     </row>
@@ -4173,7 +4003,7 @@
         <v>1960</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C77" s="6">
         <v>27432379634</v>
@@ -4185,10 +4015,10 @@
         <v>8</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I77"/>
     </row>
@@ -4197,7 +4027,7 @@
         <v>1716</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="C78" s="13">
         <v>20432828795</v>
@@ -4209,7 +4039,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>15</v>
@@ -4221,7 +4051,7 @@
         <v>398</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C79" s="13">
         <v>20419466485</v>
@@ -4233,7 +4063,7 @@
         <v>8</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>15</v>
@@ -4245,7 +4075,7 @@
         <v>1768</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C80" s="13">
         <v>23395041274</v>
@@ -4257,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I80"/>
     </row>
@@ -4269,7 +4099,7 @@
         <v>1777</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="C81" s="13">
         <v>20409249346</v>
@@ -4293,7 +4123,7 @@
         <v>1428</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C82" s="13">
         <v>27322751597</v>
@@ -4305,10 +4135,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I82"/>
     </row>
@@ -4317,7 +4147,7 @@
         <v>1985</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="C83" s="6">
         <v>27429590251</v>
@@ -4329,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I83"/>
     </row>
@@ -4341,7 +4171,7 @@
         <v>1974</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C84" s="6">
         <v>20448488633</v>
@@ -4365,7 +4195,7 @@
         <v>1725</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C85" s="13">
         <v>20398420455</v>
@@ -4389,7 +4219,7 @@
         <v>1728</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C86" s="13">
         <v>20425569458</v>
@@ -4401,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>15</v>
@@ -4413,7 +4243,7 @@
         <v>1965</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="C87" s="6">
         <v>20325134780</v>
@@ -4425,10 +4255,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I87"/>
     </row>
@@ -4437,7 +4267,7 @@
         <v>1939</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="C88" s="6">
         <v>20337122958</v>
@@ -4449,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>15</v>
@@ -4461,7 +4291,7 @@
         <v>776</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C89" s="9">
         <v>20319817175</v>
@@ -4473,10 +4303,10 @@
         <v>8</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I89"/>
     </row>
@@ -4485,7 +4315,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C90" s="13">
         <v>23254158909</v>
@@ -4497,10 +4327,10 @@
         <v>8</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I90"/>
     </row>
@@ -4509,7 +4339,7 @@
         <v>1749</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C91" s="13">
         <v>20305168530</v>
@@ -4521,10 +4351,10 @@
         <v>8</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I91"/>
     </row>
@@ -4533,7 +4363,7 @@
         <v>366</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C92" s="13">
         <v>20233171108</v>
@@ -4545,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>10</v>
@@ -4557,7 +4387,7 @@
         <v>275</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C93" s="13">
         <v>20306855833</v>
@@ -4569,7 +4399,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>19</v>
@@ -4581,7 +4411,7 @@
         <v>1774</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C94" s="13">
         <v>20455094187</v>
@@ -4605,7 +4435,7 @@
         <v>340</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C95" s="13">
         <v>20418703777</v>
@@ -4617,7 +4447,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>15</v>
@@ -4629,7 +4459,7 @@
         <v>896</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="C96" s="13">
         <v>20293486965</v>
@@ -4641,10 +4471,10 @@
         <v>8</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I96"/>
     </row>
@@ -4653,7 +4483,7 @@
         <v>1984</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C97" s="6">
         <v>20331758273</v>
@@ -4665,10 +4495,10 @@
         <v>8</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I97"/>
     </row>
@@ -4677,7 +4507,7 @@
         <v>1758</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="C98" s="13">
         <v>20454142706</v>
@@ -4689,10 +4519,10 @@
         <v>8</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I98"/>
     </row>
@@ -4701,7 +4531,7 @@
         <v>1916</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="C99" s="6">
         <v>20427654266</v>
@@ -4725,7 +4555,7 @@
         <v>1968</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="C100" s="6">
         <v>27417334225</v>
@@ -4737,7 +4567,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>15</v>
@@ -4749,7 +4579,7 @@
         <v>1895</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C101" s="19">
         <v>20344766267</v>
@@ -4761,7 +4591,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>10</v>
@@ -4773,7 +4603,7 @@
         <v>365</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C102" s="6">
         <v>20245848146</v>
@@ -4785,10 +4615,10 @@
         <v>8</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I102"/>
     </row>
@@ -4797,7 +4627,7 @@
         <v>977</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="C103" s="13">
         <v>20236401643</v>
@@ -4809,7 +4639,7 @@
         <v>8</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>15</v>
@@ -4821,7 +4651,7 @@
         <v>477</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C104" s="13">
         <v>20416041424</v>
@@ -4833,7 +4663,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>15</v>
@@ -4845,7 +4675,7 @@
         <v>1744</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C105" s="13">
         <v>27389054890</v>
@@ -4857,10 +4687,10 @@
         <v>8</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I105"/>
     </row>
@@ -4869,7 +4699,7 @@
         <v>1887</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="C106" s="19">
         <v>27424469713</v>
@@ -4881,7 +4711,7 @@
         <v>8</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>15</v>
@@ -4893,7 +4723,7 @@
         <v>1841</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C107" s="6">
         <v>27365235061</v>
@@ -4905,10 +4735,10 @@
         <v>8</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I107"/>
     </row>
@@ -4917,7 +4747,7 @@
         <v>1338</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C108" s="13">
         <v>20330163292</v>
@@ -4929,7 +4759,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>10</v>
@@ -4941,7 +4771,7 @@
         <v>20</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C109" s="13">
         <v>27409524562</v>
@@ -4950,13 +4780,13 @@
         <v>35885</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I109"/>
     </row>
@@ -4965,7 +4795,7 @@
         <v>1896</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="C110" s="19">
         <v>20409710787</v>
@@ -4977,10 +4807,10 @@
         <v>8</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I110"/>
     </row>
@@ -4989,7 +4819,7 @@
         <v>915</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C111" s="13">
         <v>20377014295</v>
@@ -5001,7 +4831,7 @@
         <v>8</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>15</v>
@@ -5013,7 +4843,7 @@
         <v>227</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C112" s="13">
         <v>27354672176</v>
@@ -5025,7 +4855,7 @@
         <v>8</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>15</v>
@@ -5037,7 +4867,7 @@
         <v>1930</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C113" s="6">
         <v>29430079579</v>
@@ -5049,7 +4879,7 @@
         <v>8</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>15</v>
@@ -5061,7 +4891,7 @@
         <v>1983</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="C114" s="6">
         <v>20377748809</v>
@@ -5073,10 +4903,10 @@
         <v>8</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I114"/>
     </row>
@@ -5085,7 +4915,7 @@
         <v>1236</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="C115" s="13">
         <v>27374450153</v>
@@ -5097,10 +4927,10 @@
         <v>8</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I115"/>
     </row>
@@ -5109,7 +4939,7 @@
         <v>1790</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="C116" s="13">
         <v>27362910582</v>
@@ -5121,10 +4951,10 @@
         <v>8</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I116"/>
     </row>
@@ -5133,7 +4963,7 @@
         <v>1914</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C117" s="6">
         <v>20414924876</v>
@@ -5145,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>15</v>
@@ -5157,7 +4987,7 @@
         <v>250</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C118" s="13">
         <v>20315205892</v>
@@ -5169,10 +4999,10 @@
         <v>8</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I118"/>
     </row>
@@ -5181,7 +5011,7 @@
         <v>205</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C119" s="13">
         <v>27403620853</v>
@@ -5193,10 +5023,10 @@
         <v>8</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I119"/>
     </row>
@@ -5205,7 +5035,7 @@
         <v>17</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="C120" s="13">
         <v>20409707808</v>
@@ -5214,13 +5044,13 @@
         <v>35868</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I120"/>
     </row>
@@ -5229,7 +5059,7 @@
         <v>328</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C121" s="13">
         <v>20266094796</v>
@@ -5241,10 +5071,10 @@
         <v>8</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I121"/>
     </row>
@@ -5253,7 +5083,7 @@
         <v>1823</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="C122" s="8">
         <v>20432844650</v>
@@ -5265,7 +5095,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>15</v>
@@ -5277,7 +5107,7 @@
         <v>1731</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="C123" s="13">
         <v>20411080758</v>
@@ -5289,7 +5119,7 @@
         <v>8</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>15</v>
@@ -5301,7 +5131,7 @@
         <v>1720</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="C124" s="13">
         <v>20421295698</v>
@@ -5313,7 +5143,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>15</v>
@@ -5325,7 +5155,7 @@
         <v>1838</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C125" s="6">
         <v>20409713085</v>
@@ -5337,10 +5167,10 @@
         <v>8</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I125"/>
     </row>
@@ -5349,7 +5179,7 @@
         <v>447</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C126" s="13">
         <v>20373367959</v>
@@ -5361,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>15</v>
@@ -5373,7 +5203,7 @@
         <v>1787</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="C127" s="13">
         <v>23434641829</v>
@@ -5385,7 +5215,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>15</v>
@@ -5397,7 +5227,7 @@
         <v>421</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C128" s="13">
         <v>20266624868</v>
@@ -5409,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G128" s="14" t="s">
         <v>10</v>
@@ -5421,7 +5251,7 @@
         <v>1778</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C129" s="13">
         <v>20290014523</v>
@@ -5433,10 +5263,10 @@
         <v>8</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I129"/>
     </row>
@@ -5445,7 +5275,7 @@
         <v>849</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C130" s="13">
         <v>27370735269</v>
@@ -5457,10 +5287,10 @@
         <v>8</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I130"/>
     </row>
@@ -5469,7 +5299,7 @@
         <v>1964</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="C131" s="6">
         <v>27383735233</v>
@@ -5481,10 +5311,10 @@
         <v>8</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I131"/>
     </row>
@@ -5493,7 +5323,7 @@
         <v>1902</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C132" s="6">
         <v>27356448206</v>
@@ -5505,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>15</v>
@@ -5517,7 +5347,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C133" s="13">
         <v>20325342197</v>
@@ -5529,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>15</v>
@@ -5541,7 +5371,7 @@
         <v>173</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C134" s="13">
         <v>27329733160</v>
@@ -5553,10 +5383,10 @@
         <v>8</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I134"/>
     </row>
@@ -5565,7 +5395,7 @@
         <v>1824</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="C135" s="8">
         <v>27406200227</v>
@@ -5577,7 +5407,7 @@
         <v>8</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>15</v>
@@ -5589,7 +5419,7 @@
         <v>651</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C136" s="13">
         <v>27377151173</v>
@@ -5601,10 +5431,10 @@
         <v>8</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I136"/>
     </row>
@@ -5613,7 +5443,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C137" s="13">
         <v>20311035836</v>
@@ -5625,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I137"/>
     </row>
@@ -5637,7 +5467,7 @@
         <v>1696</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C138" s="13">
         <v>27370732618</v>
@@ -5649,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>15</v>
@@ -5661,7 +5491,7 @@
         <v>1853</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C139" s="6">
         <v>27431267751</v>
@@ -5673,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>15</v>
@@ -5685,7 +5515,7 @@
         <v>382</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C140" s="13">
         <v>20350222465</v>
@@ -5697,10 +5527,10 @@
         <v>8</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I140"/>
     </row>
@@ -5733,7 +5563,7 @@
         <v>42</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C142" s="13">
         <v>20238089507</v>
@@ -5745,10 +5575,10 @@
         <v>8</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I142"/>
     </row>
@@ -5757,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C143" s="13">
         <v>20375767377</v>
@@ -5781,7 +5611,7 @@
         <v>21</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C144" s="13">
         <v>20390367970</v>
@@ -5790,10 +5620,10 @@
         <v>34909</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G144" s="14" t="s">
         <v>15</v>
@@ -5805,7 +5635,7 @@
         <v>24</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C145" s="12">
         <v>23343684819</v>
@@ -5814,13 +5644,13 @@
         <v>32598</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I145"/>
     </row>
@@ -5829,7 +5659,7 @@
         <v>1833</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C146" s="6">
         <v>27434957120</v>
@@ -5841,10 +5671,10 @@
         <v>8</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I146"/>
     </row>
@@ -5853,7 +5683,7 @@
         <v>502</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C147" s="13">
         <v>20242926596</v>
@@ -5865,10 +5695,10 @@
         <v>8</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I147"/>
     </row>
@@ -5877,7 +5707,7 @@
         <v>1813</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C148" s="8">
         <v>20959471879</v>
@@ -5901,7 +5731,7 @@
         <v>1802</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C149" s="13">
         <v>27423293689</v>
@@ -5913,7 +5743,7 @@
         <v>8</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G149" s="14" t="s">
         <v>15</v>
@@ -5925,7 +5755,7 @@
         <v>179</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C150" s="13">
         <v>20332130235</v>
@@ -5937,10 +5767,10 @@
         <v>8</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I150"/>
     </row>
@@ -5949,7 +5779,7 @@
         <v>783</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C151" s="13">
         <v>27288219023</v>
@@ -5961,10 +5791,10 @@
         <v>8</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I151"/>
     </row>
@@ -5973,7 +5803,7 @@
         <v>359</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C152" s="13">
         <v>20184779618</v>
@@ -5985,7 +5815,7 @@
         <v>8</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G152" s="14" t="s">
         <v>15</v>
@@ -5997,7 +5827,7 @@
         <v>578</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="C153" s="13">
         <v>20277480310</v>
@@ -6009,10 +5839,10 @@
         <v>8</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I153"/>
     </row>
@@ -6021,7 +5851,7 @@
         <v>1957</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C154" s="6">
         <v>20401198564</v>
@@ -6033,7 +5863,7 @@
         <v>8</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G154" s="14" t="s">
         <v>15</v>
@@ -6045,7 +5875,7 @@
         <v>6</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="C155" s="22">
         <v>27413607952</v>
@@ -6054,13 +5884,13 @@
         <v>36238</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I155"/>
     </row>
@@ -6069,7 +5899,7 @@
         <v>1707</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C156" s="13">
         <v>20336758603</v>
@@ -6081,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G156" s="14" t="s">
         <v>15</v>
@@ -6093,7 +5923,7 @@
         <v>439</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C157" s="13">
         <v>20427030599</v>
@@ -6105,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G157" s="14" t="s">
         <v>15</v>
@@ -6117,7 +5947,7 @@
         <v>1846</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C158" s="6">
         <v>20441795689</v>
@@ -6129,7 +5959,7 @@
         <v>8</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="G158" s="14" t="s">
         <v>15</v>
@@ -6141,7 +5971,7 @@
         <v>440</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C159" s="13">
         <v>20336758980</v>
@@ -6153,7 +5983,7 @@
         <v>8</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G159" s="14" t="s">
         <v>15</v>
@@ -6165,7 +5995,7 @@
         <v>285</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C160" s="13">
         <v>20221537271</v>
@@ -6177,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G160" s="14" t="s">
         <v>15</v>
@@ -6189,7 +6019,7 @@
         <v>1794</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C161" s="13">
         <v>20400384577</v>
@@ -6201,7 +6031,7 @@
         <v>8</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G161" s="14" t="s">
         <v>15</v>
@@ -6213,7 +6043,7 @@
         <v>1698</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C162" s="13">
         <v>20392510029</v>
@@ -6237,7 +6067,7 @@
         <v>1962</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="C163" s="6">
         <v>20399487421</v>
@@ -6249,10 +6079,10 @@
         <v>8</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I163"/>
     </row>
@@ -6261,7 +6091,7 @@
         <v>1734</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C164" s="13">
         <v>27412398160</v>
@@ -6273,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>15</v>
@@ -6285,7 +6115,7 @@
         <v>587</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="C165" s="13">
         <v>27349379738</v>
@@ -6297,7 +6127,7 @@
         <v>8</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G165" s="14" t="s">
         <v>10</v>
@@ -6309,7 +6139,7 @@
         <v>1911</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C166" s="6">
         <v>23372653019</v>
@@ -6321,7 +6151,7 @@
         <v>8</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G166" s="14" t="s">
         <v>15</v>
@@ -6333,7 +6163,7 @@
         <v>152</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C167" s="13">
         <v>27352948646</v>
@@ -6345,10 +6175,10 @@
         <v>8</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I167"/>
     </row>
@@ -6357,7 +6187,7 @@
         <v>372</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C168" s="13">
         <v>23360091139</v>
@@ -6369,10 +6199,10 @@
         <v>8</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I168"/>
     </row>
@@ -6381,7 +6211,7 @@
         <v>1879</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C169" s="19">
         <v>27296948999</v>
@@ -6393,10 +6223,10 @@
         <v>8</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I169"/>
     </row>
@@ -6405,7 +6235,7 @@
         <v>1966</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C170" s="6">
         <v>23290466229</v>
@@ -6417,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G170" s="14" t="s">
         <v>15</v>
@@ -6429,7 +6259,7 @@
         <v>1897</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C171" s="19">
         <v>20403620352</v>
@@ -6441,10 +6271,10 @@
         <v>8</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I171"/>
     </row>
@@ -6453,7 +6283,7 @@
         <v>1063</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="C172" s="13">
         <v>20407804571</v>
@@ -6465,10 +6295,10 @@
         <v>8</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I172"/>
     </row>
@@ -6477,7 +6307,7 @@
         <v>1828</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="C173" s="8">
         <v>27366815525</v>
@@ -6489,7 +6319,7 @@
         <v>8</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>15</v>
@@ -6501,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C174" s="13">
         <v>27383741020</v>
@@ -6510,13 +6340,13 @@
         <v>35244</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I174"/>
     </row>
@@ -6525,7 +6355,7 @@
         <v>1953</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C175" s="6">
         <v>20277428998</v>
@@ -6537,10 +6367,10 @@
         <v>8</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I175"/>
     </row>
@@ -6549,7 +6379,7 @@
         <v>141</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C176" s="13">
         <v>20322173769</v>
@@ -6561,10 +6391,10 @@
         <v>8</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I176"/>
     </row>
@@ -6573,7 +6403,7 @@
         <v>1867</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C177" s="6">
         <v>20421803340</v>
@@ -6585,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G177" s="14" t="s">
         <v>15</v>
@@ -6597,7 +6427,7 @@
         <v>1876</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C178" s="19">
         <v>20298762987</v>
@@ -6609,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>10</v>
@@ -6621,7 +6451,7 @@
         <v>1929</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="C179" s="6">
         <v>20395664396</v>
@@ -6633,10 +6463,10 @@
         <v>8</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I179"/>
     </row>
@@ -6645,7 +6475,7 @@
         <v>907</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C180" s="13">
         <v>20354674980</v>
@@ -6657,7 +6487,7 @@
         <v>8</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G180" s="14" t="s">
         <v>15</v>
@@ -6669,7 +6499,7 @@
         <v>1972</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="C181" s="6">
         <v>20337307710</v>
@@ -6681,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G181" s="14" t="s">
         <v>15</v>
@@ -6693,7 +6523,7 @@
         <v>1611</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C182" s="13">
         <v>20263796005</v>
@@ -6705,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G182" s="14" t="s">
         <v>15</v>
@@ -6717,7 +6547,7 @@
         <v>1987</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="C183" s="6">
         <v>20290799369</v>
@@ -6729,7 +6559,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G183" s="14" t="s">
         <v>15</v>
@@ -6741,7 +6571,7 @@
         <v>1978</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="C184" s="6">
         <v>27385960358</v>
@@ -6753,10 +6583,10 @@
         <v>8</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I184"/>
     </row>
@@ -6765,7 +6595,7 @@
         <v>265</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C185" s="13">
         <v>20357667721</v>
@@ -6777,10 +6607,10 @@
         <v>8</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I185"/>
     </row>
@@ -6789,7 +6619,7 @@
         <v>778</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="C186" s="9">
         <v>20378321280</v>
@@ -6801,10 +6631,10 @@
         <v>8</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I186"/>
     </row>
@@ -6813,7 +6643,7 @@
         <v>1899</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="C187" s="6">
         <v>27341719378</v>
@@ -6825,7 +6655,7 @@
         <v>8</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G187" s="14" t="s">
         <v>15</v>
@@ -6837,7 +6667,7 @@
         <v>1535</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="C188" s="13">
         <v>20340148941</v>
@@ -6849,10 +6679,10 @@
         <v>8</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I188"/>
     </row>
@@ -6861,7 +6691,7 @@
         <v>110</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C189" s="13">
         <v>27345579937</v>
@@ -6876,7 +6706,7 @@
         <v>18</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I189"/>
     </row>
@@ -6885,7 +6715,7 @@
         <v>384</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C190" s="13">
         <v>20373352633</v>
@@ -6909,7 +6739,7 @@
         <v>1735</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C191" s="13">
         <v>20360052401</v>
@@ -6921,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G191" s="14" t="s">
         <v>15</v>
@@ -6933,7 +6763,7 @@
         <v>1424</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C192" s="13">
         <v>20401210475</v>
@@ -6945,10 +6775,10 @@
         <v>8</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I192"/>
     </row>
@@ -6957,7 +6787,7 @@
         <v>584</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="C193" s="13">
         <v>20307019168</v>
@@ -6969,10 +6799,10 @@
         <v>8</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I193"/>
     </row>
@@ -6981,7 +6811,7 @@
         <v>919</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="C194" s="13">
         <v>20312805333</v>
@@ -6993,7 +6823,7 @@
         <v>8</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G194" s="14" t="s">
         <v>15</v>
@@ -7005,7 +6835,7 @@
         <v>517</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C195" s="13">
         <v>20403615170</v>
@@ -7017,10 +6847,10 @@
         <v>8</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I195"/>
     </row>
@@ -7029,7 +6859,7 @@
         <v>1904</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C196" s="6">
         <v>27419466374</v>
@@ -7041,7 +6871,7 @@
         <v>8</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G196" s="14" t="s">
         <v>15</v>
@@ -7053,7 +6883,7 @@
         <v>1793</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="C197" s="13">
         <v>20377670842</v>
@@ -7065,10 +6895,10 @@
         <v>8</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I197"/>
     </row>
@@ -7077,7 +6907,7 @@
         <v>1789</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="C198" s="13">
         <v>23368103489</v>
@@ -7089,7 +6919,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G198" s="14" t="s">
         <v>15</v>
@@ -7101,7 +6931,7 @@
         <v>1064</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C199" s="13">
         <v>20372659786</v>
@@ -7113,10 +6943,10 @@
         <v>8</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I199"/>
     </row>
@@ -7125,7 +6955,7 @@
         <v>1903</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="C200" s="6">
         <v>27422707188</v>
@@ -7137,7 +6967,7 @@
         <v>8</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G200" s="14" t="s">
         <v>15</v>
@@ -7149,7 +6979,7 @@
         <v>313</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C201" s="13">
         <v>27356542954</v>
@@ -7161,10 +6991,10 @@
         <v>8</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I201"/>
     </row>
@@ -7173,7 +7003,7 @@
         <v>1668</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="C202" s="13">
         <v>20398579837</v>
@@ -7185,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G202" s="14" t="s">
         <v>15</v>
@@ -7197,7 +7027,7 @@
         <v>343</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C203" s="13">
         <v>20398579845</v>
@@ -7209,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G203" s="14" t="s">
         <v>15</v>
@@ -7221,7 +7051,7 @@
         <v>1894</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="C204" s="19">
         <v>20378318670</v>
@@ -7233,10 +7063,10 @@
         <v>8</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I204"/>
     </row>
@@ -7245,7 +7075,7 @@
         <v>1729</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C205" s="13">
         <v>20372086883</v>
@@ -7257,7 +7087,7 @@
         <v>8</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>15</v>
@@ -7293,7 +7123,7 @@
         <v>113</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C207" s="13">
         <v>20260665031</v>
@@ -7305,10 +7135,10 @@
         <v>8</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G207" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I207"/>
     </row>
@@ -7317,7 +7147,7 @@
         <v>1609</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="C208" s="13">
         <v>23960045394</v>
@@ -7329,10 +7159,10 @@
         <v>8</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I208"/>
     </row>
@@ -7341,7 +7171,7 @@
         <v>1714</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C209" s="13">
         <v>20385975369</v>
@@ -7365,7 +7195,7 @@
         <v>168</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C210" s="13">
         <v>20338378700</v>
@@ -7377,10 +7207,10 @@
         <v>8</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I210"/>
     </row>
@@ -7389,7 +7219,7 @@
         <v>9</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="C211" s="13">
         <v>20939211064</v>
@@ -7398,10 +7228,10 @@
         <v>29919</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G211" s="14" t="s">
         <v>15</v>
@@ -7413,7 +7243,7 @@
         <v>1928</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="C212" s="6">
         <v>20313852777</v>
@@ -7425,10 +7255,10 @@
         <v>8</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I212"/>
     </row>
@@ -7437,7 +7267,7 @@
         <v>97</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C213" s="13">
         <v>27333223967</v>
@@ -7449,10 +7279,10 @@
         <v>8</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G213" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I213"/>
     </row>
@@ -7461,7 +7291,7 @@
         <v>235</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C214" s="13">
         <v>20239360743</v>
@@ -7473,7 +7303,7 @@
         <v>8</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G214" s="14" t="s">
         <v>15</v>
@@ -7485,7 +7315,7 @@
         <v>1042</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="C215" s="13">
         <v>20344769584</v>
@@ -7497,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G215" s="14" t="s">
         <v>10</v>
@@ -7509,7 +7339,7 @@
         <v>381</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C216" s="13">
         <v>20384511695</v>
@@ -7521,10 +7351,10 @@
         <v>8</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I216"/>
     </row>
@@ -7533,7 +7363,7 @@
         <v>947</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C217" s="13">
         <v>23389049344</v>
@@ -7542,10 +7372,10 @@
         <v>34830</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="G217" s="14" t="s">
         <v>10</v>
@@ -7557,7 +7387,7 @@
         <v>1056</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="C218" s="13">
         <v>20395028589</v>
@@ -7569,10 +7399,10 @@
         <v>8</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G218" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I218"/>
     </row>
@@ -7581,7 +7411,7 @@
         <v>1878</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="C219" s="19">
         <v>27320701525</v>
@@ -7593,7 +7423,7 @@
         <v>8</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="G219" s="14" t="s">
         <v>10</v>
@@ -7605,7 +7435,7 @@
         <v>347</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C220" s="13">
         <v>20370421731</v>
@@ -7617,7 +7447,7 @@
         <v>8</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G220" s="14" t="s">
         <v>15</v>
@@ -7629,7 +7459,7 @@
         <v>1711</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C221" s="13">
         <v>20412566867</v>
@@ -7653,7 +7483,7 @@
         <v>918</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="C222" s="13">
         <v>20384486747</v>
@@ -7665,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G222" s="14" t="s">
         <v>15</v>
@@ -7677,7 +7507,7 @@
         <v>1669</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="C223" s="13">
         <v>23278623629</v>
@@ -7689,7 +7519,7 @@
         <v>8</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G223" s="14" t="s">
         <v>15</v>
@@ -7701,22 +7531,22 @@
         <v>2000</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="D224" s="20">
         <v>25012</v>
       </c>
       <c r="E224" s="18" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I224"/>
     </row>
@@ -7725,7 +7555,7 @@
         <v>22</v>
       </c>
       <c r="B225" s="32" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="C225" s="12">
         <v>23393669209</v>
@@ -7734,10 +7564,10 @@
         <v>35244</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G225" s="14" t="s">
         <v>15</v>
@@ -7749,7 +7579,7 @@
         <v>1827</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C226" s="8">
         <v>20417910426</v>
@@ -7761,7 +7591,7 @@
         <v>8</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G226" s="14" t="s">
         <v>15</v>
@@ -7773,7 +7603,7 @@
         <v>414</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C227" s="13">
         <v>20373358569</v>
@@ -7785,7 +7615,7 @@
         <v>8</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G227" s="14" t="s">
         <v>15</v>
@@ -7797,7 +7627,7 @@
         <v>325</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C228" s="13">
         <v>20399485011</v>
@@ -7809,7 +7639,7 @@
         <v>8</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G228" s="14" t="s">
         <v>15</v>
@@ -7845,7 +7675,7 @@
         <v>503</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C230" s="13">
         <v>20377146892</v>
@@ -7857,7 +7687,7 @@
         <v>8</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G230" s="14" t="s">
         <v>15</v>
@@ -7869,7 +7699,7 @@
         <v>1682</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C231" s="13">
         <v>20447813719</v>
@@ -7881,7 +7711,7 @@
         <v>8</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G231" s="14" t="s">
         <v>15</v>
@@ -7893,7 +7723,7 @@
         <v>1809</v>
       </c>
       <c r="B232" s="30" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="C232" s="8">
         <v>20245862092</v>
@@ -7905,7 +7735,7 @@
         <v>8</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="G232" s="14" t="s">
         <v>19</v>
@@ -7917,7 +7747,7 @@
         <v>1732</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C233" s="13">
         <v>20403596915</v>
@@ -7929,7 +7759,7 @@
         <v>8</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G233" s="14" t="s">
         <v>15</v>
@@ -7941,7 +7771,7 @@
         <v>1354</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C234" s="13">
         <v>20354316588</v>
@@ -7953,10 +7783,10 @@
         <v>8</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G234" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I234"/>
     </row>
@@ -7965,7 +7795,7 @@
         <v>904</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C235" s="13">
         <v>27331329679</v>
@@ -7977,10 +7807,10 @@
         <v>8</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G235" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I235"/>
     </row>
@@ -7989,7 +7819,7 @@
         <v>511</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="C236" s="13">
         <v>20308024661</v>
@@ -8001,10 +7831,10 @@
         <v>8</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G236" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I236"/>
     </row>
@@ -8013,7 +7843,7 @@
         <v>1979</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="C237" s="6">
         <v>27290421336</v>
@@ -8025,10 +7855,10 @@
         <v>8</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I237"/>
     </row>
@@ -8037,7 +7867,7 @@
         <v>882</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="C238" s="13">
         <v>20291121358</v>
@@ -8049,7 +7879,7 @@
         <v>8</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G238" s="14" t="s">
         <v>15</v>
@@ -8061,7 +7891,7 @@
         <v>1921</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="C239" s="6">
         <v>27311609756</v>
@@ -8073,10 +7903,10 @@
         <v>8</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I239"/>
     </row>
@@ -8085,7 +7915,7 @@
         <v>1883</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C240" s="19">
         <v>20273195387</v>
@@ -8097,10 +7927,10 @@
         <v>8</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="G240" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I240"/>
     </row>
@@ -8109,7 +7939,7 @@
         <v>1845</v>
       </c>
       <c r="B241" s="30" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="C241" s="6">
         <v>20447654181</v>
@@ -8121,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I241"/>
     </row>
@@ -8133,7 +7963,7 @@
         <v>472</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C242" s="13">
         <v>27365197895</v>
@@ -8145,10 +7975,10 @@
         <v>8</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I242"/>
     </row>
@@ -8157,7 +7987,7 @@
         <v>914</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C243" s="13">
         <v>23423257539</v>
@@ -8169,10 +7999,10 @@
         <v>8</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G243" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I243"/>
     </row>
@@ -8181,7 +8011,7 @@
         <v>512</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C244" s="13">
         <v>23250176279</v>
@@ -8193,7 +8023,7 @@
         <v>8</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G244" s="14" t="s">
         <v>15</v>
@@ -8205,7 +8035,7 @@
         <v>32</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C245" s="13">
         <v>20338658142</v>
@@ -8217,10 +8047,10 @@
         <v>8</v>
       </c>
       <c r="F245" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G245" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G245" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="I245"/>
     </row>
@@ -8229,7 +8059,7 @@
         <v>195</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C246" s="13">
         <v>27366073928</v>
@@ -8241,10 +8071,10 @@
         <v>8</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I246"/>
     </row>
@@ -8253,7 +8083,7 @@
         <v>240</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C247" s="13">
         <v>20377069510</v>
@@ -8265,7 +8095,7 @@
         <v>8</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G247" s="14" t="s">
         <v>15</v>
@@ -8277,7 +8107,7 @@
         <v>1858</v>
       </c>
       <c r="B248" s="30" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="C248" s="6">
         <v>27385143171</v>
@@ -8289,10 +8119,10 @@
         <v>8</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G248" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I248"/>
     </row>
@@ -8301,7 +8131,7 @@
         <v>1935</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="C249" s="6">
         <v>27403667515</v>
@@ -8313,10 +8143,10 @@
         <v>8</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I249"/>
     </row>
@@ -8325,7 +8155,7 @@
         <v>1678</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="C250" s="13">
         <v>20414924558</v>
@@ -8337,7 +8167,7 @@
         <v>8</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G250" s="14" t="s">
         <v>15</v>
@@ -8349,7 +8179,7 @@
         <v>1762</v>
       </c>
       <c r="B251" s="28" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C251" s="13">
         <v>20376720285</v>
@@ -8361,10 +8191,10 @@
         <v>8</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G251" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I251"/>
     </row>
@@ -8373,7 +8203,7 @@
         <v>1934</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C252" s="6">
         <v>27425420173</v>
@@ -8385,10 +8215,10 @@
         <v>8</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G252" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I252"/>
     </row>
@@ -8397,7 +8227,7 @@
         <v>163</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C253" s="13">
         <v>23366586954</v>
@@ -8409,10 +8239,10 @@
         <v>8</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G253" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I253"/>
     </row>
@@ -8421,7 +8251,7 @@
         <v>1055</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C254" s="13">
         <v>20407860781</v>
@@ -8445,7 +8275,7 @@
         <v>1925</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="C255" s="6">
         <v>23325632399</v>
@@ -8457,10 +8287,10 @@
         <v>8</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I255"/>
     </row>
@@ -8469,7 +8299,7 @@
         <v>1863</v>
       </c>
       <c r="B256" s="30" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="C256" s="6">
         <v>20395018168</v>
@@ -8481,7 +8311,7 @@
         <v>8</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G256" s="14" t="s">
         <v>15</v>
@@ -8493,7 +8323,7 @@
         <v>1706</v>
       </c>
       <c r="B257" s="28" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C257" s="13">
         <v>23385957769</v>
@@ -8505,7 +8335,7 @@
         <v>8</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G257" s="14" t="s">
         <v>15</v>
@@ -8517,7 +8347,7 @@
         <v>1923</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="C258" s="6">
         <v>20403860779</v>
@@ -8529,10 +8359,10 @@
         <v>8</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G258" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I258"/>
     </row>
@@ -8541,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="C259" s="6">
         <v>27389247281</v>
@@ -8550,13 +8380,13 @@
         <v>34849</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I259"/>
     </row>
@@ -8565,7 +8395,7 @@
         <v>1577</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C260" s="13">
         <v>27377148393</v>
@@ -8577,10 +8407,10 @@
         <v>8</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G260" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I260"/>
     </row>
@@ -8589,7 +8419,7 @@
         <v>1703</v>
       </c>
       <c r="B261" s="28" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C261" s="13">
         <v>27320784978</v>
@@ -8601,10 +8431,10 @@
         <v>8</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G261" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I261"/>
     </row>
@@ -8613,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="B262" s="30" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="C262" s="6">
         <v>23369974084</v>
@@ -8622,13 +8452,13 @@
         <v>34033</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I262"/>
     </row>
@@ -8637,7 +8467,7 @@
         <v>1708</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C263" s="13">
         <v>20385241950</v>
@@ -8649,7 +8479,7 @@
         <v>8</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G263" s="14" t="s">
         <v>15</v>
@@ -8661,7 +8491,7 @@
         <v>750</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="C264" s="13">
         <v>23959047979</v>
@@ -8670,10 +8500,10 @@
         <v>28681</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G264" s="14" t="s">
         <v>10</v>
@@ -8685,7 +8515,7 @@
         <v>560</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C265" s="13">
         <v>23306407589</v>
@@ -8697,10 +8527,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G265" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I265"/>
     </row>
@@ -8709,7 +8539,7 @@
         <v>1847</v>
       </c>
       <c r="B266" s="30" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C266" s="6">
         <v>20382908792</v>
@@ -8721,10 +8551,10 @@
         <v>8</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G266" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I266"/>
     </row>
@@ -8733,7 +8563,7 @@
         <v>474</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C267" s="13">
         <v>20421298824</v>
@@ -8757,7 +8587,7 @@
         <v>295</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C268" s="13">
         <v>23328108399</v>
@@ -8769,7 +8599,7 @@
         <v>8</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G268" s="14" t="s">
         <v>15</v>
@@ -8781,7 +8611,7 @@
         <v>56</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C269" s="13">
         <v>20379021426</v>
@@ -8793,7 +8623,7 @@
         <v>8</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G269" s="14" t="s">
         <v>15</v>
@@ -8805,7 +8635,7 @@
         <v>13</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="C270" s="13">
         <v>20329627684</v>
@@ -8814,10 +8644,10 @@
         <v>31912</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="G270" s="14" t="s">
         <v>10</v>
@@ -8829,7 +8659,7 @@
         <v>1060</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C271" s="13">
         <v>20348203410</v>
@@ -8841,10 +8671,10 @@
         <v>8</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G271" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I271"/>
     </row>
@@ -8853,7 +8683,7 @@
         <v>1859</v>
       </c>
       <c r="B272" s="30" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="C272" s="6">
         <v>20442319295</v>
@@ -8877,7 +8707,7 @@
         <v>1982</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="C273" s="6">
         <v>27421294750</v>
@@ -8889,10 +8719,10 @@
         <v>8</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I273"/>
     </row>
@@ -8901,7 +8731,7 @@
         <v>706</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C274" s="13">
         <v>23214227479</v>
@@ -8913,7 +8743,7 @@
         <v>8</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G274" s="14" t="s">
         <v>15</v>
@@ -8925,7 +8755,7 @@
         <v>1915</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="C275" s="6">
         <v>20423253461</v>
@@ -8937,7 +8767,7 @@
         <v>8</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G275" s="14" t="s">
         <v>15</v>
@@ -8949,7 +8779,7 @@
         <v>389</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C276" s="13">
         <v>27368937091</v>
@@ -8961,7 +8791,7 @@
         <v>8</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G276" s="14" t="s">
         <v>10</v>
@@ -8973,7 +8803,7 @@
         <v>451</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C277" s="13">
         <v>20385967889</v>
@@ -8985,7 +8815,7 @@
         <v>8</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G277" s="14" t="s">
         <v>15</v>
@@ -8997,7 +8827,7 @@
         <v>305</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C278" s="13">
         <v>20352264785</v>
@@ -9009,10 +8839,10 @@
         <v>8</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G278" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I278"/>
     </row>
@@ -9021,7 +8851,7 @@
         <v>1807</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="C279" s="6">
         <v>20375802156</v>
@@ -9033,10 +8863,10 @@
         <v>8</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G279" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I279"/>
     </row>
@@ -9045,7 +8875,7 @@
         <v>1683</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C280" s="13">
         <v>20411086624</v>
@@ -9057,10 +8887,10 @@
         <v>8</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G280" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I280"/>
     </row>
@@ -9069,7 +8899,7 @@
         <v>675</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C281" s="13">
         <v>20345287508</v>
@@ -9081,10 +8911,10 @@
         <v>8</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G281" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I281"/>
     </row>
@@ -9093,7 +8923,7 @@
         <v>99</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C282" s="13">
         <v>20372088649</v>
@@ -9105,7 +8935,7 @@
         <v>8</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G282" s="14" t="s">
         <v>15</v>
@@ -9117,7 +8947,7 @@
         <v>1677</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="C283" s="13">
         <v>20413425604</v>
@@ -9129,7 +8959,7 @@
         <v>8</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G283" s="14" t="s">
         <v>15</v>
@@ -9141,7 +8971,7 @@
         <v>616</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="C284" s="13">
         <v>20266677791</v>
@@ -9153,10 +8983,10 @@
         <v>8</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G284" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I284"/>
     </row>
@@ -9165,7 +8995,7 @@
         <v>1718</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="C285" s="13">
         <v>20960020414</v>
@@ -9189,7 +9019,7 @@
         <v>598</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C286" s="13">
         <v>20379032177</v>
@@ -9201,10 +9031,10 @@
         <v>8</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I286"/>
     </row>
@@ -9213,7 +9043,7 @@
         <v>1057</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C287" s="13">
         <v>20366232738</v>
@@ -9225,7 +9055,7 @@
         <v>8</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G287" s="14" t="s">
         <v>15</v>
@@ -9237,7 +9067,7 @@
         <v>930</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="C288" s="13">
         <v>20278626580</v>
@@ -9249,7 +9079,7 @@
         <v>8</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G288" s="14" t="s">
         <v>10</v>
@@ -9261,7 +9091,7 @@
         <v>479</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C289" s="13">
         <v>20313433294</v>
@@ -9273,7 +9103,7 @@
         <v>8</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G289" s="14" t="s">
         <v>10</v>
@@ -9285,7 +9115,7 @@
         <v>568</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="C290" s="13">
         <v>23286451489</v>
@@ -9297,7 +9127,7 @@
         <v>8</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G290" s="14" t="s">
         <v>15</v>
@@ -9309,7 +9139,7 @@
         <v>238</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C291" s="13">
         <v>20388987449</v>
@@ -9333,7 +9163,7 @@
         <v>1780</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="C292" s="13">
         <v>27308515031</v>
@@ -9345,10 +9175,10 @@
         <v>8</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G292" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I292"/>
     </row>
@@ -9357,7 +9187,7 @@
         <v>1840</v>
       </c>
       <c r="B293" s="30" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C293" s="6">
         <v>20357041504</v>
@@ -9369,10 +9199,10 @@
         <v>8</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G293" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I293"/>
     </row>
@@ -9381,7 +9211,7 @@
         <v>1805</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C294" s="13">
         <v>23431273209</v>
@@ -9393,7 +9223,7 @@
         <v>8</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G294" s="14" t="s">
         <v>15</v>
@@ -9405,7 +9235,7 @@
         <v>1912</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="C295" s="6">
         <v>20408762473</v>
@@ -9417,7 +9247,7 @@
         <v>8</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G295" s="14" t="s">
         <v>15</v>
@@ -9429,7 +9259,7 @@
         <v>950</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C296" s="13">
         <v>27421252144</v>
@@ -9441,10 +9271,10 @@
         <v>8</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G296" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I296"/>
     </row>
@@ -9453,7 +9283,7 @@
         <v>1842</v>
       </c>
       <c r="B297" s="30" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="C297" s="6">
         <v>20432862748</v>
@@ -9465,7 +9295,7 @@
         <v>8</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G297" s="14" t="s">
         <v>15</v>
@@ -9477,7 +9307,7 @@
         <v>1423</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C298" s="13">
         <v>27355861266</v>
@@ -9489,10 +9319,10 @@
         <v>8</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G298" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I298"/>
     </row>
@@ -9501,7 +9331,7 @@
         <v>1844</v>
       </c>
       <c r="B299" s="30" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C299" s="6">
         <v>20411617891</v>
@@ -9513,10 +9343,10 @@
         <v>8</v>
       </c>
       <c r="F299" s="14" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="G299" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I299"/>
     </row>
@@ -9525,7 +9355,7 @@
         <v>499</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C300" s="13">
         <v>27356440078</v>
@@ -9537,10 +9367,10 @@
         <v>8</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G300" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I300"/>
     </row>
@@ -9549,7 +9379,7 @@
         <v>1756</v>
       </c>
       <c r="B301" s="28" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="C301" s="13">
         <v>27379035499</v>
@@ -9561,10 +9391,10 @@
         <v>8</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G301" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I301"/>
     </row>
@@ -9573,7 +9403,7 @@
         <v>1822</v>
       </c>
       <c r="B302" s="30" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C302" s="8">
         <v>20418599473</v>
@@ -9597,7 +9427,7 @@
         <v>1918</v>
       </c>
       <c r="B303" s="26" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="C303" s="6">
         <v>20364880643</v>
@@ -9609,10 +9439,10 @@
         <v>8</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G303" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I303"/>
     </row>
@@ -9621,7 +9451,7 @@
         <v>176</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C304" s="13">
         <v>20323247936</v>
@@ -9633,10 +9463,10 @@
         <v>8</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G304" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I304"/>
     </row>
@@ -9645,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="C305" s="6">
         <v>20316228691</v>
@@ -9654,13 +9484,13 @@
         <v>31258</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F305" s="14" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="G305" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I305"/>
     </row>
@@ -9669,7 +9499,7 @@
         <v>1765</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="C306" s="13">
         <v>27389831102</v>
@@ -9681,10 +9511,10 @@
         <v>8</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G306" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I306"/>
     </row>
@@ -9693,7 +9523,7 @@
         <v>1815</v>
       </c>
       <c r="B307" s="30" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C307" s="8">
         <v>20316965491</v>
@@ -9705,7 +9535,7 @@
         <v>8</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G307" s="14" t="s">
         <v>15</v>
@@ -9717,7 +9547,7 @@
         <v>1975</v>
       </c>
       <c r="B308" s="26" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="C308" s="6">
         <v>20431280729</v>
@@ -9729,10 +9559,10 @@
         <v>8</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G308" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I308"/>
     </row>
@@ -9741,7 +9571,7 @@
         <v>1855</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="C309" s="6">
         <v>20308876633</v>
@@ -9753,7 +9583,7 @@
         <v>8</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G309" s="14" t="s">
         <v>10</v>
@@ -9765,7 +9595,7 @@
         <v>331</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C310" s="13">
         <v>23389029629</v>
@@ -9777,7 +9607,7 @@
         <v>8</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G310" s="14" t="s">
         <v>15</v>
@@ -9789,7 +9619,7 @@
         <v>1886</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="C311" s="19">
         <v>24428685519</v>
@@ -9801,7 +9631,7 @@
         <v>8</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G311" s="14" t="s">
         <v>15</v>
@@ -9813,7 +9643,7 @@
         <v>1674</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C312" s="13">
         <v>20421301043</v>
@@ -9825,7 +9655,7 @@
         <v>8</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G312" s="14" t="s">
         <v>15</v>
@@ -9837,7 +9667,7 @@
         <v>358</v>
       </c>
       <c r="B313" s="28" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C313" s="13">
         <v>20311155734</v>
@@ -9849,7 +9679,7 @@
         <v>8</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G313" s="14" t="s">
         <v>10</v>
@@ -9861,7 +9691,7 @@
         <v>592</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C314" s="13">
         <v>20147143894</v>
@@ -9873,10 +9703,10 @@
         <v>8</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I314"/>
     </row>
@@ -9885,7 +9715,7 @@
         <v>132</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C315" s="13">
         <v>20341464464</v>
@@ -9897,7 +9727,7 @@
         <v>8</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G315" s="14" t="s">
         <v>10</v>
@@ -9909,7 +9739,7 @@
         <v>508</v>
       </c>
       <c r="B316" s="28" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C316" s="13">
         <v>20263565704</v>
@@ -9921,7 +9751,7 @@
         <v>8</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G316" s="14" t="s">
         <v>15</v>
@@ -9933,7 +9763,7 @@
         <v>166</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C317" s="13">
         <v>20328248574</v>
@@ -9945,10 +9775,10 @@
         <v>8</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G317" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I317"/>
     </row>
@@ -9957,7 +9787,7 @@
         <v>1784</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="C318" s="13">
         <v>20390476974</v>
@@ -9969,7 +9799,7 @@
         <v>8</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G318" s="14" t="s">
         <v>15</v>
@@ -9981,7 +9811,7 @@
         <v>1832</v>
       </c>
       <c r="B319" s="30" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C319" s="6">
         <v>27442319125</v>
@@ -9993,10 +9823,10 @@
         <v>8</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="G319" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I319"/>
     </row>
@@ -10005,7 +9835,7 @@
         <v>1884</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C320" s="19">
         <v>23316079989</v>
@@ -10017,10 +9847,10 @@
         <v>8</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G320" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I320"/>
     </row>
@@ -10029,7 +9859,7 @@
         <v>1426</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="C321" s="13">
         <v>20323318302</v>
@@ -10041,10 +9871,10 @@
         <v>8</v>
       </c>
       <c r="F321" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G321" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I321"/>
     </row>
@@ -10053,7 +9883,7 @@
         <v>378</v>
       </c>
       <c r="B322" s="28" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C322" s="13">
         <v>20389794288</v>
@@ -10077,7 +9907,7 @@
         <v>161</v>
       </c>
       <c r="B323" s="28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C323" s="13">
         <v>20308729878</v>
@@ -10089,7 +9919,7 @@
         <v>8</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G323" s="14" t="s">
         <v>10</v>
@@ -10101,7 +9931,7 @@
         <v>1701</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C324" s="13">
         <v>20410864526</v>
@@ -10113,7 +9943,7 @@
         <v>8</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G324" s="14" t="s">
         <v>15</v>
@@ -10125,7 +9955,7 @@
         <v>1700</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C325" s="13">
         <v>20403663310</v>
@@ -10137,7 +9967,7 @@
         <v>8</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G325" s="14" t="s">
         <v>15</v>
@@ -10149,7 +9979,7 @@
         <v>1977</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="C326" s="6">
         <v>27416040961</v>
@@ -10161,10 +9991,10 @@
         <v>8</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G326" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I326"/>
     </row>
@@ -10173,7 +10003,7 @@
         <v>1980</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="C327" s="6">
         <v>27322951467</v>
@@ -10185,10 +10015,10 @@
         <v>8</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G327" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I327"/>
     </row>
@@ -10197,7 +10027,7 @@
         <v>6</v>
       </c>
       <c r="B328" s="28" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="C328" s="13">
         <v>27321298015</v>
@@ -10206,10 +10036,10 @@
         <v>31398</v>
       </c>
       <c r="E328" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="G328" s="14" t="s">
         <v>10</v>
@@ -10221,7 +10051,7 @@
         <v>1232</v>
       </c>
       <c r="B329" s="28" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="C329" s="13">
         <v>27307109323</v>
@@ -10233,10 +10063,10 @@
         <v>8</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G329" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I329"/>
     </row>
@@ -10245,7 +10075,7 @@
         <v>1907</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="C330" s="6">
         <v>27388490301</v>
@@ -10257,10 +10087,10 @@
         <v>8</v>
       </c>
       <c r="F330" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G330" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I330"/>
     </row>
@@ -10269,7 +10099,7 @@
         <v>245</v>
       </c>
       <c r="B331" s="27" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C331" s="13">
         <v>23367380039</v>
@@ -10293,7 +10123,7 @@
         <v>1803</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C332" s="13">
         <v>20366473042</v>
@@ -10305,10 +10135,10 @@
         <v>8</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G332" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I332"/>
     </row>
@@ -10317,7 +10147,7 @@
         <v>310</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C333" s="13">
         <v>20410128323</v>
@@ -10329,7 +10159,7 @@
         <v>8</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G333" s="14" t="s">
         <v>15</v>
@@ -10341,7 +10171,7 @@
         <v>222</v>
       </c>
       <c r="B334" s="28" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C334" s="13">
         <v>20357514569</v>
@@ -10353,10 +10183,10 @@
         <v>8</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G334" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I334"/>
     </row>
@@ -10365,7 +10195,7 @@
         <v>1817</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C335" s="8">
         <v>23402154594</v>
@@ -10377,7 +10207,7 @@
         <v>8</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G335" s="14" t="s">
         <v>15</v>
@@ -10389,7 +10219,7 @@
         <v>454</v>
       </c>
       <c r="B336" s="28" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C336" s="13">
         <v>20334343899</v>
@@ -10401,7 +10231,7 @@
         <v>8</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G336" s="14" t="s">
         <v>10</v>
@@ -10413,7 +10243,7 @@
         <v>1693</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C337" s="13">
         <v>20406197736</v>
@@ -10425,7 +10255,7 @@
         <v>8</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G337" s="14" t="s">
         <v>15</v>
@@ -10437,7 +10267,7 @@
         <v>777</v>
       </c>
       <c r="B338" s="31" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C338" s="9">
         <v>27959887565</v>
@@ -10449,10 +10279,10 @@
         <v>8</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I338"/>
     </row>
@@ -10461,7 +10291,7 @@
         <v>1782</v>
       </c>
       <c r="B339" s="28" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="C339" s="13">
         <v>20417911341</v>
@@ -10473,10 +10303,10 @@
         <v>8</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I339"/>
     </row>
@@ -10485,7 +10315,7 @@
         <v>1689</v>
       </c>
       <c r="B340" s="28" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C340" s="13">
         <v>20427685641</v>
@@ -10497,7 +10327,7 @@
         <v>8</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G340" s="14" t="s">
         <v>15</v>
@@ -10509,7 +10339,7 @@
         <v>246</v>
       </c>
       <c r="B341" s="28" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C341" s="13">
         <v>27391212266</v>
@@ -10521,10 +10351,10 @@
         <v>8</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G341" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I341"/>
     </row>
@@ -10533,7 +10363,7 @@
         <v>1610</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C342" s="13">
         <v>20352909530</v>
@@ -10545,7 +10375,7 @@
         <v>8</v>
       </c>
       <c r="F342" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G342" s="14" t="s">
         <v>15</v>
@@ -10557,7 +10387,7 @@
         <v>1772</v>
       </c>
       <c r="B343" s="28" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="C343" s="13">
         <v>27416048970</v>
@@ -10569,10 +10399,10 @@
         <v>8</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="G343" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I343"/>
     </row>
@@ -10581,7 +10411,7 @@
         <v>1967</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="C344" s="6">
         <v>20441795271</v>
@@ -10593,7 +10423,7 @@
         <v>8</v>
       </c>
       <c r="F344" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G344" s="14" t="s">
         <v>15</v>
@@ -10605,7 +10435,7 @@
         <v>1892</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="C345" s="19">
         <v>27383780581</v>
@@ -10617,10 +10447,10 @@
         <v>8</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G345" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I345"/>
     </row>
@@ -10629,7 +10459,7 @@
         <v>73</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C346" s="13">
         <v>27331355181</v>
@@ -10641,7 +10471,7 @@
         <v>8</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G346" s="14" t="s">
         <v>15</v>
@@ -10653,7 +10483,7 @@
         <v>1576</v>
       </c>
       <c r="B347" s="28" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C347" s="13">
         <v>20329080685</v>
@@ -10665,10 +10495,10 @@
         <v>8</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G347" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I347"/>
     </row>
@@ -10677,7 +10507,7 @@
         <v>183</v>
       </c>
       <c r="B348" s="28" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C348" s="13">
         <v>27321992531</v>
@@ -10689,10 +10519,10 @@
         <v>8</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G348" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I348"/>
     </row>
@@ -10701,7 +10531,7 @@
         <v>1870</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="C349" s="19">
         <v>20442915076</v>
@@ -10713,10 +10543,10 @@
         <v>8</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I349"/>
     </row>
@@ -10725,7 +10555,7 @@
         <v>214</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C350" s="13">
         <v>20342156410</v>
@@ -10737,10 +10567,10 @@
         <v>8</v>
       </c>
       <c r="F350" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G350" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I350"/>
     </row>
@@ -10749,7 +10579,7 @@
         <v>29</v>
       </c>
       <c r="B351" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C351" s="13">
         <v>20281920864</v>
@@ -10773,7 +10603,7 @@
         <v>303</v>
       </c>
       <c r="B352" s="28" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C352" s="13">
         <v>20181712873</v>
@@ -10785,10 +10615,10 @@
         <v>8</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G352" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I352"/>
     </row>
@@ -10797,7 +10627,7 @@
         <v>1806</v>
       </c>
       <c r="B353" s="30" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="C353" s="8">
         <v>20327609506</v>
@@ -10809,10 +10639,10 @@
         <v>8</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G353" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I353"/>
     </row>
@@ -10821,7 +10651,7 @@
         <v>223</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C354" s="13">
         <v>20328955254</v>
@@ -10833,10 +10663,10 @@
         <v>8</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G354" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I354"/>
     </row>
@@ -10845,7 +10675,7 @@
         <v>157</v>
       </c>
       <c r="B355" s="28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C355" s="13">
         <v>20296162656</v>
@@ -10857,10 +10687,10 @@
         <v>8</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G355" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I355"/>
     </row>
@@ -10869,7 +10699,7 @@
         <v>300</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C356" s="13">
         <v>27341664255</v>
@@ -10881,7 +10711,7 @@
         <v>8</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G356" s="14" t="s">
         <v>15</v>
@@ -10893,7 +10723,7 @@
         <v>180</v>
       </c>
       <c r="B357" s="28" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C357" s="13">
         <v>27368935358</v>
@@ -10905,10 +10735,10 @@
         <v>8</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G357" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I357"/>
     </row>
@@ -10917,7 +10747,7 @@
         <v>413</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C358" s="13">
         <v>20309383460</v>
@@ -10929,7 +10759,7 @@
         <v>8</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G358" s="14" t="s">
         <v>15</v>
@@ -10941,7 +10771,7 @@
         <v>1773</v>
       </c>
       <c r="B359" s="28" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C359" s="13">
         <v>20434555877</v>
@@ -10953,10 +10783,10 @@
         <v>8</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="G359" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I359"/>
     </row>
@@ -10965,7 +10795,7 @@
         <v>1710</v>
       </c>
       <c r="B360" s="28" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C360" s="13">
         <v>20336856192</v>
@@ -10977,7 +10807,7 @@
         <v>8</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G360" s="14" t="s">
         <v>15</v>
@@ -10989,7 +10819,7 @@
         <v>276</v>
       </c>
       <c r="B361" s="28" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C361" s="13">
         <v>20323640115</v>
@@ -11001,10 +10831,10 @@
         <v>8</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G361" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I361"/>
     </row>
@@ -11013,7 +10843,7 @@
         <v>1675</v>
       </c>
       <c r="B362" s="28" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C362" s="13">
         <v>20403167798</v>
@@ -11025,7 +10855,7 @@
         <v>8</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G362" s="14" t="s">
         <v>15</v>
@@ -11037,7 +10867,7 @@
         <v>1986</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="C363" s="6">
         <v>20318999482</v>
@@ -11049,7 +10879,7 @@
         <v>8</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G363" s="14" t="s">
         <v>15</v>
@@ -11061,7 +10891,7 @@
         <v>1908</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="C364" s="6">
         <v>27414660989</v>
@@ -11073,10 +10903,10 @@
         <v>8</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G364" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I364"/>
     </row>
@@ -11085,7 +10915,7 @@
         <v>1819</v>
       </c>
       <c r="B365" s="30" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C365" s="8">
         <v>20462955694</v>
@@ -11097,7 +10927,7 @@
         <v>8</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G365" s="14" t="s">
         <v>15</v>
@@ -11109,7 +10939,7 @@
         <v>248</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C366" s="13">
         <v>27355834447</v>
@@ -11121,10 +10951,10 @@
         <v>8</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G366" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I366"/>
     </row>
@@ -11133,7 +10963,7 @@
         <v>1658</v>
       </c>
       <c r="B367" s="28" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="C367" s="13">
         <v>20403151220</v>
@@ -11145,7 +10975,7 @@
         <v>8</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G367" s="14" t="s">
         <v>15</v>
@@ -11157,7 +10987,7 @@
         <v>1727</v>
       </c>
       <c r="B368" s="28" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C368" s="13">
         <v>20421291773</v>
@@ -11181,7 +11011,7 @@
         <v>1656</v>
       </c>
       <c r="B369" s="28" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C369" s="13">
         <v>27324641160</v>
@@ -11193,10 +11023,10 @@
         <v>8</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="G369" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I369"/>
     </row>
@@ -11205,7 +11035,7 @@
         <v>567</v>
       </c>
       <c r="B370" s="28" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="C370" s="13">
         <v>27332435715</v>
@@ -11217,10 +11047,10 @@
         <v>8</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G370" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I370"/>
     </row>
@@ -11229,7 +11059,7 @@
         <v>5</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="C371" s="13">
         <v>20365430188</v>
@@ -11238,13 +11068,13 @@
         <v>33748</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G371" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I371"/>
     </row>
@@ -11253,7 +11083,7 @@
         <v>774</v>
       </c>
       <c r="B372" s="28" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C372" s="13">
         <v>23256488469</v>
@@ -11265,10 +11095,10 @@
         <v>8</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G372" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I372"/>
     </row>
@@ -11277,7 +11107,7 @@
         <v>468</v>
       </c>
       <c r="B373" s="28" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C373" s="13">
         <v>20289766783</v>
@@ -11289,10 +11119,10 @@
         <v>8</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G373" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I373"/>
     </row>
@@ -11301,7 +11131,7 @@
         <v>165</v>
       </c>
       <c r="B374" s="28" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C374" s="13">
         <v>27291406322</v>
@@ -11313,10 +11143,10 @@
         <v>8</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G374" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I374"/>
     </row>
@@ -11325,7 +11155,7 @@
         <v>247</v>
       </c>
       <c r="B375" s="28" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C375" s="13">
         <v>20377725345</v>
@@ -11337,10 +11167,10 @@
         <v>8</v>
       </c>
       <c r="F375" s="14" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="G375" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I375"/>
     </row>
@@ -11349,7 +11179,7 @@
         <v>1877</v>
       </c>
       <c r="B376" s="26" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="C376" s="19">
         <v>23312576929</v>
@@ -11361,10 +11191,10 @@
         <v>8</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="G376" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I376"/>
     </row>
@@ -11373,7 +11203,7 @@
         <v>411</v>
       </c>
       <c r="B377" s="28" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C377" s="13">
         <v>27392470358</v>
@@ -11385,10 +11215,10 @@
         <v>8</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="G377" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I377"/>
     </row>
@@ -11397,7 +11227,7 @@
         <v>368</v>
       </c>
       <c r="B378" s="28" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C378" s="13">
         <v>20344082775</v>
@@ -11409,7 +11239,7 @@
         <v>8</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G378" s="14" t="s">
         <v>15</v>
@@ -11421,7 +11251,7 @@
         <v>1871</v>
       </c>
       <c r="B379" s="26" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="C379" s="19">
         <v>20371866354</v>
@@ -11433,10 +11263,10 @@
         <v>8</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="G379" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I379"/>
     </row>
@@ -11445,7 +11275,7 @@
         <v>1963</v>
       </c>
       <c r="B380" s="25" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="C380" s="6">
         <v>20443315692</v>
@@ -11457,10 +11287,10 @@
         <v>8</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="G380" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I380"/>
     </row>
@@ -11469,7 +11299,7 @@
         <v>495</v>
       </c>
       <c r="B381" s="28" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C381" s="13">
         <v>20377146760</v>
@@ -11481,7 +11311,7 @@
         <v>8</v>
       </c>
       <c r="F381" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G381" s="14" t="s">
         <v>15</v>
@@ -11493,7 +11323,7 @@
         <v>476</v>
       </c>
       <c r="B382" s="28" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C382" s="13">
         <v>20402670720</v>
@@ -11505,7 +11335,7 @@
         <v>8</v>
       </c>
       <c r="F382" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G382" s="14" t="s">
         <v>15</v>
@@ -11517,7 +11347,7 @@
         <v>1940</v>
       </c>
       <c r="B383" s="26" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="C383" s="6">
         <v>20403594599</v>
@@ -11529,7 +11359,7 @@
         <v>8</v>
       </c>
       <c r="F383" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G383" s="14" t="s">
         <v>15</v>
@@ -11541,7 +11371,7 @@
         <v>1932</v>
       </c>
       <c r="B384" s="26" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="C384" s="6">
         <v>27459488540</v>
@@ -11553,10 +11383,10 @@
         <v>8</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G384" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I384"/>
     </row>
@@ -11565,7 +11395,7 @@
         <v>933</v>
       </c>
       <c r="B385" s="28" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="C385" s="13">
         <v>20273357085</v>
@@ -11577,7 +11407,7 @@
         <v>8</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G385" s="14" t="s">
         <v>15</v>
@@ -11589,7 +11419,7 @@
         <v>75</v>
       </c>
       <c r="B386" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C386" s="13">
         <v>23381311449</v>
@@ -11604,7 +11434,7 @@
         <v>9</v>
       </c>
       <c r="G386" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I386"/>
     </row>
@@ -11613,7 +11443,7 @@
         <v>1898</v>
       </c>
       <c r="B387" s="26" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="C387" s="6">
         <v>27391267850</v>
@@ -11625,10 +11455,10 @@
         <v>8</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G387" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I387"/>
     </row>
@@ -11637,7 +11467,7 @@
         <v>1759</v>
       </c>
       <c r="B388" s="28" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C388" s="13">
         <v>20399505209</v>
@@ -11649,10 +11479,10 @@
         <v>8</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G388" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I388"/>
     </row>
@@ -11661,7 +11491,7 @@
         <v>1671</v>
       </c>
       <c r="B389" s="28" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="C389" s="13">
         <v>20355871119</v>
@@ -11673,7 +11503,7 @@
         <v>8</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="G389" s="14" t="s">
         <v>15</v>
@@ -11685,7 +11515,7 @@
         <v>1848</v>
       </c>
       <c r="B390" s="30" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C390" s="6">
         <v>20419760189</v>
@@ -11697,10 +11527,10 @@
         <v>8</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G390" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I390"/>
     </row>
@@ -11709,7 +11539,7 @@
         <v>225</v>
       </c>
       <c r="B391" s="28" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C391" s="13">
         <v>27173571254</v>
@@ -11721,7 +11551,7 @@
         <v>8</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G391" s="14" t="s">
         <v>15</v>
@@ -11733,7 +11563,7 @@
         <v>81</v>
       </c>
       <c r="B392" s="28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C392" s="13">
         <v>27247729939</v>
@@ -11745,7 +11575,7 @@
         <v>8</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G392" s="14" t="s">
         <v>15</v>
@@ -11757,7 +11587,7 @@
         <v>1922</v>
       </c>
       <c r="B393" s="26" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="C393" s="6">
         <v>20344444820</v>
@@ -11769,7 +11599,7 @@
         <v>8</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G393" s="14" t="s">
         <v>15</v>
@@ -11781,7 +11611,7 @@
         <v>23</v>
       </c>
       <c r="B394" s="32" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="C394" s="12">
         <v>27326504918</v>
@@ -11790,13 +11620,13 @@
         <v>31726</v>
       </c>
       <c r="E394" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="G394" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I394"/>
     </row>
@@ -11805,7 +11635,7 @@
         <v>234</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C395" s="13">
         <v>27392532175</v>
@@ -11817,10 +11647,10 @@
         <v>8</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G395" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I395"/>
     </row>
@@ -11829,7 +11659,7 @@
         <v>151</v>
       </c>
       <c r="B396" s="28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C396" s="13">
         <v>20288219991</v>
@@ -11841,7 +11671,7 @@
         <v>8</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G396" s="14" t="s">
         <v>10</v>
@@ -11853,7 +11683,7 @@
         <v>43</v>
       </c>
       <c r="B397" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C397" s="13">
         <v>27275131860</v>
@@ -11865,10 +11695,10 @@
         <v>8</v>
       </c>
       <c r="F397" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G397" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I397"/>
     </row>
@@ -11877,7 +11707,7 @@
         <v>1811</v>
       </c>
       <c r="B398" s="30" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C398" s="8">
         <v>20205403184</v>
@@ -11889,7 +11719,7 @@
         <v>8</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G398" s="14" t="s">
         <v>10</v>
@@ -11901,7 +11731,7 @@
         <v>1837</v>
       </c>
       <c r="B399" s="30" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="C399" s="6">
         <v>27421787110</v>
@@ -11913,10 +11743,10 @@
         <v>8</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="G399" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I399"/>
     </row>
@@ -11925,7 +11755,7 @@
         <v>1924</v>
       </c>
       <c r="B400" s="26" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="C400" s="6">
         <v>20305483037</v>
@@ -11937,7 +11767,7 @@
         <v>8</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="G400" s="14" t="s">
         <v>15</v>
@@ -11949,7 +11779,7 @@
         <v>5</v>
       </c>
       <c r="B401" s="28" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="C401" s="13">
         <v>20366910132</v>
@@ -11958,13 +11788,13 @@
         <v>33585</v>
       </c>
       <c r="E401" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G401" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I401"/>
     </row>
@@ -11973,7 +11803,7 @@
         <v>1781</v>
       </c>
       <c r="B402" s="28" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="C402" s="13">
         <v>20373360466</v>
@@ -11985,10 +11815,10 @@
         <v>8</v>
       </c>
       <c r="F402" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G402" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G402" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="I402"/>
     </row>
@@ -11997,7 +11827,7 @@
         <v>1970</v>
       </c>
       <c r="B403" s="26" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="C403" s="6">
         <v>27365451031</v>
@@ -12009,7 +11839,7 @@
         <v>8</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G403" s="14" t="s">
         <v>15</v>
@@ -12021,7 +11851,7 @@
         <v>1958</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="C404" s="6">
         <v>27349392602</v>
@@ -12033,7 +11863,7 @@
         <v>8</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G404" s="14" t="s">
         <v>15</v>
@@ -12045,7 +11875,7 @@
         <v>322</v>
       </c>
       <c r="B405" s="28" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C405" s="13">
         <v>20281463897</v>
@@ -12057,10 +11887,10 @@
         <v>8</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G405" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I405"/>
     </row>
@@ -12069,7 +11899,7 @@
         <v>200</v>
       </c>
       <c r="B406" s="28" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C406" s="13">
         <v>20384488162</v>
@@ -12093,7 +11923,7 @@
         <v>1852</v>
       </c>
       <c r="B407" s="30" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="C407" s="6">
         <v>20401223550</v>
@@ -12105,7 +11935,7 @@
         <v>8</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G407" s="14" t="s">
         <v>15</v>
@@ -12117,7 +11947,7 @@
         <v>1956</v>
       </c>
       <c r="B408" s="26" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C408" s="6">
         <v>27347147538</v>
@@ -12129,7 +11959,7 @@
         <v>8</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G408" s="14" t="s">
         <v>15</v>
@@ -12141,7 +11971,7 @@
         <v>1927</v>
       </c>
       <c r="B409" s="25" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="C409" s="6">
         <v>20361116837</v>
@@ -12153,10 +11983,10 @@
         <v>8</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="G409" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I409"/>
     </row>
@@ -12165,7 +11995,7 @@
         <v>387</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C410" s="13">
         <v>20322877200</v>
@@ -12177,7 +12007,7 @@
         <v>8</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G410" s="14" t="s">
         <v>15</v>
@@ -12189,7 +12019,7 @@
         <v>1608</v>
       </c>
       <c r="B411" s="28" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="C411" s="13">
         <v>20253281791</v>
@@ -12201,7 +12031,7 @@
         <v>8</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G411" s="14" t="s">
         <v>10</v>
@@ -12213,7 +12043,7 @@
         <v>1745</v>
       </c>
       <c r="B412" s="27" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C412" s="13">
         <v>27259009451</v>
@@ -12225,10 +12055,10 @@
         <v>8</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G412" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I412"/>
     </row>
@@ -12237,7 +12067,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="28" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="C413" s="13">
         <v>20297875907</v>
@@ -12246,13 +12076,13 @@
         <v>30274</v>
       </c>
       <c r="E413" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F413" s="14" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="G413" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I413"/>
     </row>
@@ -12261,7 +12091,7 @@
         <v>448</v>
       </c>
       <c r="B414" s="28" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C414" s="13">
         <v>20363700870</v>
@@ -12273,7 +12103,7 @@
         <v>8</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G414" s="14" t="s">
         <v>15</v>
@@ -12285,7 +12115,7 @@
         <v>1872</v>
       </c>
       <c r="B415" s="26" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="C415" s="19">
         <v>23343926014</v>
@@ -12297,7 +12127,7 @@
         <v>8</v>
       </c>
       <c r="F415" s="4" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="G415" s="4" t="s">
         <v>10</v>
@@ -12309,7 +12139,7 @@
         <v>1754</v>
       </c>
       <c r="B416" s="28" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C416" s="13">
         <v>20364447001</v>
@@ -12321,10 +12151,10 @@
         <v>8</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G416" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I416"/>
     </row>
@@ -12333,7 +12163,7 @@
         <v>705</v>
       </c>
       <c r="B417" s="28" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C417" s="13">
         <v>27375740619</v>
@@ -12345,10 +12175,10 @@
         <v>8</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="G417" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I417"/>
     </row>
@@ -12357,7 +12187,7 @@
         <v>916</v>
       </c>
       <c r="B418" s="28" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C418" s="13">
         <v>20474412971</v>
@@ -12369,7 +12199,7 @@
         <v>8</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G418" s="14" t="s">
         <v>15</v>
@@ -12381,7 +12211,7 @@
         <v>912</v>
       </c>
       <c r="B419" s="28" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="C419" s="13">
         <v>20409702199</v>
@@ -12405,7 +12235,7 @@
         <v>1659</v>
       </c>
       <c r="B420" s="31" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C420" s="13">
         <v>20377149018</v>
@@ -12417,7 +12247,7 @@
         <v>8</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G420" s="14" t="s">
         <v>15</v>
@@ -12429,7 +12259,7 @@
         <v>1672</v>
       </c>
       <c r="B421" s="27" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="C421" s="13">
         <v>20397554792</v>
@@ -12441,7 +12271,7 @@
         <v>8</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G421" s="14" t="s">
         <v>15</v>
@@ -12453,7 +12283,7 @@
         <v>1764</v>
       </c>
       <c r="B422" s="28" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C422" s="13">
         <v>20401193406</v>
@@ -12465,10 +12295,10 @@
         <v>8</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="G422" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I422"/>
     </row>
@@ -12477,7 +12307,7 @@
         <v>312</v>
       </c>
       <c r="B423" s="28" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C423" s="13">
         <v>27303493056</v>
@@ -12489,10 +12319,10 @@
         <v>8</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G423" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I423"/>
     </row>
@@ -12501,7 +12331,7 @@
         <v>1942</v>
       </c>
       <c r="B424" s="26" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="C424" s="6">
         <v>27250984206</v>
@@ -12513,7 +12343,7 @@
         <v>8</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G424" s="14" t="s">
         <v>15</v>
